--- a/data/streamlit_24_cycle.xlsx
+++ b/data/streamlit_24_cycle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12075" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CycleE" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
       <sheetName val="M&amp;Apivot"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="480">
           <cell r="BJ480">
@@ -526,7 +526,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -797,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P357"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="D357" sqref="D357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -34660,8 +34660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/data/streamlit_24_cycle.xlsx
+++ b/data/streamlit_24_cycle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CycleE" sheetId="1" r:id="rId1"/>
@@ -337,7 +337,7 @@
             <v>-1.4163533854939379</v>
           </cell>
           <cell r="BP480">
-            <v>-1.3779278775976924</v>
+            <v>-1.3779278775976926</v>
           </cell>
           <cell r="BQ480">
             <v>-1.075623185241898</v>
@@ -366,7 +366,7 @@
         </row>
         <row r="481">
           <cell r="BJ481">
-            <v>0.30933569307856068</v>
+            <v>0.30881093266945103</v>
           </cell>
           <cell r="BK481">
             <v>-0.46922881307476588</v>
@@ -375,19 +375,19 @@
             <v>-0.77335020636436791</v>
           </cell>
           <cell r="BM481">
-            <v>0.2622885871364678</v>
+            <v>0.31951518796624234</v>
           </cell>
           <cell r="BN481">
-            <v>-0.12710227223329706</v>
+            <v>2.1555356109740693E-2</v>
           </cell>
           <cell r="BO481">
             <v>-1.3091512949452477</v>
           </cell>
           <cell r="BP481">
-            <v>-1.3532727311830344</v>
+            <v>-1.3532727311830348</v>
           </cell>
           <cell r="BQ481">
-            <v>-1.3110141160551216</v>
+            <v>-1.3078090207178676</v>
           </cell>
           <cell r="BR481">
             <v>-0.4248862487573335</v>
@@ -396,7 +396,7 @@
             <v>-1.6897280124888108</v>
           </cell>
           <cell r="BU481">
-            <v>-0.68861094148869506</v>
+            <v>-0.66775448507859936</v>
           </cell>
           <cell r="BV481">
             <v>0</v>
@@ -411,7 +411,7 @@
             <v>0</v>
           </cell>
           <cell r="CM481">
-            <v>-0.68861094148869506</v>
+            <v>-0.66775448507859936</v>
           </cell>
           <cell r="CT481">
             <v>0</v>
@@ -423,6 +423,68 @@
             <v>0</v>
           </cell>
           <cell r="CW481">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="482">
+          <cell r="BJ482">
+            <v>0.31358519984667099</v>
+          </cell>
+          <cell r="BK482">
+            <v>-0.80392306440883798</v>
+          </cell>
+          <cell r="BL482">
+            <v>-0.54169921535684906</v>
+          </cell>
+          <cell r="BM482">
+            <v>0.31110499525451485</v>
+          </cell>
+          <cell r="BN482">
+            <v>2.491897981207598E-2</v>
+          </cell>
+          <cell r="BO482">
+            <v>-1.2865390195559898</v>
+          </cell>
+          <cell r="BP482">
+            <v>-1.3294936101760422</v>
+          </cell>
+          <cell r="BQ482">
+            <v>-1.3013045480738243</v>
+          </cell>
+          <cell r="BR482">
+            <v>-0.60386286159001101</v>
+          </cell>
+          <cell r="BS482">
+            <v>-1.4946983838560315</v>
+          </cell>
+          <cell r="BU482">
+            <v>-0.67119115281043251</v>
+          </cell>
+          <cell r="BV482">
+            <v>0</v>
+          </cell>
+          <cell r="BW482">
+            <v>0</v>
+          </cell>
+          <cell r="BX482">
+            <v>10</v>
+          </cell>
+          <cell r="BY482">
+            <v>0</v>
+          </cell>
+          <cell r="CM482">
+            <v>-0.67119115281043251</v>
+          </cell>
+          <cell r="CT482">
+            <v>0</v>
+          </cell>
+          <cell r="CU482">
+            <v>0</v>
+          </cell>
+          <cell r="CV482">
+            <v>0</v>
+          </cell>
+          <cell r="CW482">
             <v>10</v>
           </cell>
         </row>
@@ -471,7 +533,7 @@
         </row>
         <row r="481">
           <cell r="BD481">
-            <v>0.95799999999999996</v>
+            <v>0.99099999999999999</v>
           </cell>
           <cell r="BE481">
             <v>0.78600000000000003</v>
@@ -495,7 +557,7 @@
             <v>0.42099999999999999</v>
           </cell>
           <cell r="BN481">
-            <v>0.57475000000000009</v>
+            <v>0.57062499999999994</v>
           </cell>
           <cell r="BO481">
             <v>0</v>
@@ -510,7 +572,7 @@
             <v>10</v>
           </cell>
           <cell r="BV481">
-            <v>0.64196894138265626</v>
+            <v>0.63878824036398607</v>
           </cell>
           <cell r="CD481">
             <v>0</v>
@@ -522,6 +584,62 @@
             <v>0</v>
           </cell>
           <cell r="CG481">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="482">
+          <cell r="BD482">
+            <v>0.90900000000000003</v>
+          </cell>
+          <cell r="BE482">
+            <v>0.74399999999999999</v>
+          </cell>
+          <cell r="BF482">
+            <v>0.09</v>
+          </cell>
+          <cell r="BG482">
+            <v>0.30499999999999999</v>
+          </cell>
+          <cell r="BH482">
+            <v>0.18099999999999999</v>
+          </cell>
+          <cell r="BI482">
+            <v>0.65200000000000002</v>
+          </cell>
+          <cell r="BJ482">
+            <v>9.9000000000000005E-2</v>
+          </cell>
+          <cell r="BK482">
+            <v>0.30499999999999999</v>
+          </cell>
+          <cell r="BN482">
+            <v>0.58937499999999998</v>
+          </cell>
+          <cell r="BO482">
+            <v>0</v>
+          </cell>
+          <cell r="BP482">
+            <v>0</v>
+          </cell>
+          <cell r="BQ482">
+            <v>0</v>
+          </cell>
+          <cell r="BR482">
+            <v>10</v>
+          </cell>
+          <cell r="BV482">
+            <v>0.66050615818350344</v>
+          </cell>
+          <cell r="CD482">
+            <v>0</v>
+          </cell>
+          <cell r="CE482">
+            <v>10</v>
+          </cell>
+          <cell r="CF482">
+            <v>0</v>
+          </cell>
+          <cell r="CG482">
             <v>0</v>
           </cell>
         </row>
@@ -795,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P357"/>
+  <dimension ref="A1:P358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="D357" sqref="D357"/>
+    <sheetView topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="P358" sqref="P358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -18589,7 +18707,7 @@
       </c>
       <c r="H356" s="1">
         <f>'[1]MS_V2-6'!BP480</f>
-        <v>-1.3779278775976924</v>
+        <v>-1.3779278775976926</v>
       </c>
       <c r="I356" s="1">
         <f>'[1]MS_V2-6'!BQ480</f>
@@ -18630,7 +18748,7 @@
       </c>
       <c r="B357" s="1">
         <f>'[1]MS_V2-6'!BJ481</f>
-        <v>0.30933569307856068</v>
+        <v>0.30881093266945103</v>
       </c>
       <c r="C357" s="1">
         <f>'[1]MS_V2-6'!BK481</f>
@@ -18642,11 +18760,11 @@
       </c>
       <c r="E357" s="1">
         <f>'[1]MS_V2-6'!BM481</f>
-        <v>0.2622885871364678</v>
+        <v>0.31951518796624234</v>
       </c>
       <c r="F357" s="1">
         <f>'[1]MS_V2-6'!BN481</f>
-        <v>-0.12710227223329706</v>
+        <v>2.1555356109740693E-2</v>
       </c>
       <c r="G357" s="1">
         <f>'[1]MS_V2-6'!BO481</f>
@@ -18654,11 +18772,11 @@
       </c>
       <c r="H357" s="1">
         <f>'[1]MS_V2-6'!BP481</f>
-        <v>-1.3532727311830344</v>
+        <v>-1.3532727311830348</v>
       </c>
       <c r="I357" s="1">
         <f>'[1]MS_V2-6'!BQ481</f>
-        <v>-1.3110141160551216</v>
+        <v>-1.3078090207178676</v>
       </c>
       <c r="J357" s="1">
         <f>'[1]MS_V2-6'!BR481</f>
@@ -18670,7 +18788,7 @@
       </c>
       <c r="L357" s="1">
         <f>'[1]MS_V2-6'!BU481</f>
-        <v>-0.68861094148869506</v>
+        <v>-0.66775448507859936</v>
       </c>
       <c r="M357" s="1">
         <f>'[1]MS_V2-6'!BV481</f>
@@ -18686,6 +18804,71 @@
       </c>
       <c r="P357" s="1">
         <f>'[1]MS_V2-6'!BY481</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A358" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B358" s="1">
+        <f>'[1]MS_V2-6'!BJ482</f>
+        <v>0.31358519984667099</v>
+      </c>
+      <c r="C358" s="1">
+        <f>'[1]MS_V2-6'!BK482</f>
+        <v>-0.80392306440883798</v>
+      </c>
+      <c r="D358" s="1">
+        <f>'[1]MS_V2-6'!BL482</f>
+        <v>-0.54169921535684906</v>
+      </c>
+      <c r="E358" s="1">
+        <f>'[1]MS_V2-6'!BM482</f>
+        <v>0.31110499525451485</v>
+      </c>
+      <c r="F358" s="1">
+        <f>'[1]MS_V2-6'!BN482</f>
+        <v>2.491897981207598E-2</v>
+      </c>
+      <c r="G358" s="1">
+        <f>'[1]MS_V2-6'!BO482</f>
+        <v>-1.2865390195559898</v>
+      </c>
+      <c r="H358" s="1">
+        <f>'[1]MS_V2-6'!BP482</f>
+        <v>-1.3294936101760422</v>
+      </c>
+      <c r="I358" s="1">
+        <f>'[1]MS_V2-6'!BQ482</f>
+        <v>-1.3013045480738243</v>
+      </c>
+      <c r="J358" s="1">
+        <f>'[1]MS_V2-6'!BR482</f>
+        <v>-0.60386286159001101</v>
+      </c>
+      <c r="K358" s="1">
+        <f>'[1]MS_V2-6'!BS482</f>
+        <v>-1.4946983838560315</v>
+      </c>
+      <c r="L358" s="1">
+        <f>'[1]MS_V2-6'!BU482</f>
+        <v>-0.67119115281043251</v>
+      </c>
+      <c r="M358" s="1">
+        <f>'[1]MS_V2-6'!BV482</f>
+        <v>0</v>
+      </c>
+      <c r="N358" s="1">
+        <f>'[1]MS_V2-6'!BW482</f>
+        <v>0</v>
+      </c>
+      <c r="O358" s="1">
+        <f>'[1]MS_V2-6'!BX482</f>
+        <v>10</v>
+      </c>
+      <c r="P358" s="1">
+        <f>'[1]MS_V2-6'!BY482</f>
         <v>0</v>
       </c>
     </row>
@@ -18807,10 +18990,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N357"/>
+  <dimension ref="A1:N358"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="K358" sqref="K358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -34504,7 +34687,7 @@
       </c>
       <c r="B357" s="4">
         <f>[1]BNPP_V2!BD481</f>
-        <v>0.95799999999999996</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="C357" s="4">
         <f>[1]BNPP_V2!BE481</f>
@@ -34536,7 +34719,7 @@
       </c>
       <c r="J357" s="4">
         <f>[1]BNPP_V2!BN481</f>
-        <v>0.57475000000000009</v>
+        <v>0.57062499999999994</v>
       </c>
       <c r="K357" s="1">
         <f>[1]BNPP_V2!BO481</f>
@@ -34552,6 +34735,63 @@
       </c>
       <c r="N357" s="1">
         <f>[1]BNPP_V2!BR481</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A358" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B358" s="4">
+        <f>[1]BNPP_V2!BD482</f>
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="C358" s="4">
+        <f>[1]BNPP_V2!BE482</f>
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="D358" s="4">
+        <f>[1]BNPP_V2!BF482</f>
+        <v>0.09</v>
+      </c>
+      <c r="E358" s="4">
+        <f>[1]BNPP_V2!BG482</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="F358" s="4">
+        <f>[1]BNPP_V2!BH482</f>
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="G358" s="4">
+        <f>[1]BNPP_V2!BI482</f>
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="H358" s="4">
+        <f>[1]BNPP_V2!BJ482</f>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="I358" s="4">
+        <f>[1]BNPP_V2!BK482</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="J358" s="4">
+        <f>[1]BNPP_V2!BN482</f>
+        <v>0.58937499999999998</v>
+      </c>
+      <c r="K358" s="1">
+        <f>[1]BNPP_V2!BO482</f>
+        <v>0</v>
+      </c>
+      <c r="L358" s="1">
+        <f>[1]BNPP_V2!BP482</f>
+        <v>0</v>
+      </c>
+      <c r="M358" s="1">
+        <f>[1]BNPP_V2!BQ482</f>
+        <v>0</v>
+      </c>
+      <c r="N358" s="1">
+        <f>[1]BNPP_V2!BR482</f>
         <v>10</v>
       </c>
     </row>
@@ -34658,10 +34898,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F357"/>
+  <dimension ref="A1:F358"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="A358" sqref="A358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -41641,7 +41881,7 @@
       </c>
       <c r="B357" s="5">
         <f>'[1]MS_V2-6'!CM481</f>
-        <v>-0.68861094148869506</v>
+        <v>-0.66775448507859936</v>
       </c>
       <c r="C357" s="1">
         <f>'[1]MS_V2-6'!CT481</f>
@@ -41657,6 +41897,31 @@
       </c>
       <c r="F357" s="1">
         <f>'[1]MS_V2-6'!CW481</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B358" s="5">
+        <f>'[1]MS_V2-6'!CM482</f>
+        <v>-0.67119115281043251</v>
+      </c>
+      <c r="C358" s="1">
+        <f>'[1]MS_V2-6'!CT482</f>
+        <v>0</v>
+      </c>
+      <c r="D358" s="1">
+        <f>'[1]MS_V2-6'!CU482</f>
+        <v>0</v>
+      </c>
+      <c r="E358" s="1">
+        <f>'[1]MS_V2-6'!CV482</f>
+        <v>0</v>
+      </c>
+      <c r="F358" s="1">
+        <f>'[1]MS_V2-6'!CW482</f>
         <v>10</v>
       </c>
     </row>
@@ -41668,10 +41933,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F357"/>
+  <dimension ref="A1:F358"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="C351" sqref="C351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -48807,7 +49072,7 @@
       </c>
       <c r="B357" s="4">
         <f>[1]BNPP_V2!BV481</f>
-        <v>0.64196894138265626</v>
+        <v>0.63878824036398607</v>
       </c>
       <c r="C357" s="1">
         <f>[1]BNPP_V2!CD481</f>
@@ -48823,6 +49088,31 @@
       </c>
       <c r="F357" s="1">
         <f>[1]BNPP_V2!CG481</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B358" s="4">
+        <f>[1]BNPP_V2!BV482</f>
+        <v>0.66050615818350344</v>
+      </c>
+      <c r="C358" s="1">
+        <f>[1]BNPP_V2!CD482</f>
+        <v>0</v>
+      </c>
+      <c r="D358" s="1">
+        <f>[1]BNPP_V2!CE482</f>
+        <v>10</v>
+      </c>
+      <c r="E358" s="1">
+        <f>[1]BNPP_V2!CF482</f>
+        <v>0</v>
+      </c>
+      <c r="F358" s="1">
+        <f>[1]BNPP_V2!CG482</f>
         <v>0</v>
       </c>
     </row>

--- a/data/streamlit_24_cycle.xlsx
+++ b/data/streamlit_24_cycle.xlsx
@@ -384,7 +384,7 @@
             <v>-1.3091512949452477</v>
           </cell>
           <cell r="BP481">
-            <v>-1.3532727311830348</v>
+            <v>-1.3052796090053287</v>
           </cell>
           <cell r="BQ481">
             <v>-1.3078090207178676</v>
@@ -396,7 +396,7 @@
             <v>-1.6897280124888108</v>
           </cell>
           <cell r="BU481">
-            <v>-0.66775448507859936</v>
+            <v>-0.66295517286082872</v>
           </cell>
           <cell r="BV481">
             <v>0</v>
@@ -411,7 +411,7 @@
             <v>0</v>
           </cell>
           <cell r="CM481">
-            <v>-0.66775448507859936</v>
+            <v>-0.66295517286082872</v>
           </cell>
           <cell r="CT481">
             <v>0</v>
@@ -437,19 +437,19 @@
             <v>-0.54169921535684906</v>
           </cell>
           <cell r="BM482">
-            <v>0.31110499525451485</v>
+            <v>0.36845153815857334</v>
           </cell>
           <cell r="BN482">
-            <v>2.491897981207598E-2</v>
+            <v>0.17368900854088612</v>
           </cell>
           <cell r="BO482">
             <v>-1.2865390195559898</v>
           </cell>
           <cell r="BP482">
-            <v>-1.3294936101760422</v>
+            <v>-1.2827045124508754</v>
           </cell>
           <cell r="BQ482">
-            <v>-1.3013045480738243</v>
+            <v>-1.2974447151842314</v>
           </cell>
           <cell r="BR482">
             <v>-0.60386286159001101</v>
@@ -458,7 +458,7 @@
             <v>-1.4946983838560315</v>
           </cell>
           <cell r="BU482">
-            <v>-0.67119115281043251</v>
+            <v>-0.64551460258566951</v>
           </cell>
           <cell r="BV482">
             <v>0</v>
@@ -473,7 +473,7 @@
             <v>0</v>
           </cell>
           <cell r="CM482">
-            <v>-0.67119115281043251</v>
+            <v>-0.64551460258566951</v>
           </cell>
           <cell r="CT482">
             <v>0</v>
@@ -485,6 +485,68 @@
             <v>0</v>
           </cell>
           <cell r="CW482">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="483">
+          <cell r="BJ483">
+            <v>0.31353471260839005</v>
+          </cell>
+          <cell r="BK483">
+            <v>-0.10447411556129384</v>
+          </cell>
+          <cell r="BL483">
+            <v>-0.56624498926337641</v>
+          </cell>
+          <cell r="BM483">
+            <v>0.36032485545141768</v>
+          </cell>
+          <cell r="BN483">
+            <v>0.17685219233365629</v>
+          </cell>
+          <cell r="BO483">
+            <v>-1.4047337475459551</v>
+          </cell>
+          <cell r="BP483">
+            <v>-1.2608363489273764</v>
+          </cell>
+          <cell r="BQ483">
+            <v>-1.3645012411610347</v>
+          </cell>
+          <cell r="BR483">
+            <v>-0.92228923530380358</v>
+          </cell>
+          <cell r="BS483">
+            <v>-1.0249919012056437</v>
+          </cell>
+          <cell r="BU483">
+            <v>-0.57973598185750197</v>
+          </cell>
+          <cell r="BV483">
+            <v>0</v>
+          </cell>
+          <cell r="BW483">
+            <v>0</v>
+          </cell>
+          <cell r="BX483">
+            <v>0</v>
+          </cell>
+          <cell r="BY483">
+            <v>10</v>
+          </cell>
+          <cell r="CM483">
+            <v>-0.57973598185750197</v>
+          </cell>
+          <cell r="CT483">
+            <v>0</v>
+          </cell>
+          <cell r="CU483">
+            <v>0</v>
+          </cell>
+          <cell r="CV483">
+            <v>0</v>
+          </cell>
+          <cell r="CW483">
             <v>10</v>
           </cell>
         </row>
@@ -589,7 +651,7 @@
         </row>
         <row r="482">
           <cell r="BD482">
-            <v>0.90900000000000003</v>
+            <v>0.92500000000000004</v>
           </cell>
           <cell r="BE482">
             <v>0.74399999999999999</v>
@@ -598,7 +660,7 @@
             <v>0.09</v>
           </cell>
           <cell r="BG482">
-            <v>0.30499999999999999</v>
+            <v>0.56100000000000005</v>
           </cell>
           <cell r="BH482">
             <v>0.18099999999999999</v>
@@ -613,7 +675,7 @@
             <v>0.30499999999999999</v>
           </cell>
           <cell r="BN482">
-            <v>0.58937499999999998</v>
+            <v>0.55537499999999995</v>
           </cell>
           <cell r="BO482">
             <v>0</v>
@@ -628,18 +690,74 @@
             <v>10</v>
           </cell>
           <cell r="BV482">
-            <v>0.66050615818350344</v>
+            <v>0.64141698143117565</v>
           </cell>
           <cell r="CD482">
-            <v>0</v>
+            <v>10</v>
           </cell>
           <cell r="CE482">
-            <v>10</v>
+            <v>0</v>
           </cell>
           <cell r="CF482">
             <v>0</v>
           </cell>
           <cell r="CG482">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="483">
+          <cell r="BD483">
+            <v>0.91700000000000004</v>
+          </cell>
+          <cell r="BE483">
+            <v>0.74399999999999999</v>
+          </cell>
+          <cell r="BF483">
+            <v>4.9000000000000002E-2</v>
+          </cell>
+          <cell r="BG483">
+            <v>0.35499999999999998</v>
+          </cell>
+          <cell r="BH483">
+            <v>0.19</v>
+          </cell>
+          <cell r="BI483">
+            <v>0.67700000000000005</v>
+          </cell>
+          <cell r="BJ483">
+            <v>4.9000000000000002E-2</v>
+          </cell>
+          <cell r="BK483">
+            <v>0.13200000000000001</v>
+          </cell>
+          <cell r="BN483">
+            <v>0.61087500000000006</v>
+          </cell>
+          <cell r="BO483">
+            <v>0</v>
+          </cell>
+          <cell r="BP483">
+            <v>0</v>
+          </cell>
+          <cell r="BQ483">
+            <v>0</v>
+          </cell>
+          <cell r="BR483">
+            <v>10</v>
+          </cell>
+          <cell r="BV483">
+            <v>0.69955506210814089</v>
+          </cell>
+          <cell r="CD483">
+            <v>0</v>
+          </cell>
+          <cell r="CE483">
+            <v>10</v>
+          </cell>
+          <cell r="CF483">
+            <v>0</v>
+          </cell>
+          <cell r="CG483">
             <v>0</v>
           </cell>
         </row>
@@ -913,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P358"/>
+  <dimension ref="A1:P359"/>
   <sheetViews>
-    <sheetView topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="P358" sqref="P358"/>
+    <sheetView topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="O359" sqref="O359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -18772,7 +18890,7 @@
       </c>
       <c r="H357" s="1">
         <f>'[1]MS_V2-6'!BP481</f>
-        <v>-1.3532727311830348</v>
+        <v>-1.3052796090053287</v>
       </c>
       <c r="I357" s="1">
         <f>'[1]MS_V2-6'!BQ481</f>
@@ -18788,7 +18906,7 @@
       </c>
       <c r="L357" s="1">
         <f>'[1]MS_V2-6'!BU481</f>
-        <v>-0.66775448507859936</v>
+        <v>-0.66295517286082872</v>
       </c>
       <c r="M357" s="1">
         <f>'[1]MS_V2-6'!BV481</f>
@@ -18825,11 +18943,11 @@
       </c>
       <c r="E358" s="1">
         <f>'[1]MS_V2-6'!BM482</f>
-        <v>0.31110499525451485</v>
+        <v>0.36845153815857334</v>
       </c>
       <c r="F358" s="1">
         <f>'[1]MS_V2-6'!BN482</f>
-        <v>2.491897981207598E-2</v>
+        <v>0.17368900854088612</v>
       </c>
       <c r="G358" s="1">
         <f>'[1]MS_V2-6'!BO482</f>
@@ -18837,11 +18955,11 @@
       </c>
       <c r="H358" s="1">
         <f>'[1]MS_V2-6'!BP482</f>
-        <v>-1.3294936101760422</v>
+        <v>-1.2827045124508754</v>
       </c>
       <c r="I358" s="1">
         <f>'[1]MS_V2-6'!BQ482</f>
-        <v>-1.3013045480738243</v>
+        <v>-1.2974447151842314</v>
       </c>
       <c r="J358" s="1">
         <f>'[1]MS_V2-6'!BR482</f>
@@ -18853,7 +18971,7 @@
       </c>
       <c r="L358" s="1">
         <f>'[1]MS_V2-6'!BU482</f>
-        <v>-0.67119115281043251</v>
+        <v>-0.64551460258566951</v>
       </c>
       <c r="M358" s="1">
         <f>'[1]MS_V2-6'!BV482</f>
@@ -18870,6 +18988,71 @@
       <c r="P358" s="1">
         <f>'[1]MS_V2-6'!BY482</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A359" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B359" s="1">
+        <f>'[1]MS_V2-6'!BJ483</f>
+        <v>0.31353471260839005</v>
+      </c>
+      <c r="C359" s="1">
+        <f>'[1]MS_V2-6'!BK483</f>
+        <v>-0.10447411556129384</v>
+      </c>
+      <c r="D359" s="1">
+        <f>'[1]MS_V2-6'!BL483</f>
+        <v>-0.56624498926337641</v>
+      </c>
+      <c r="E359" s="1">
+        <f>'[1]MS_V2-6'!BM483</f>
+        <v>0.36032485545141768</v>
+      </c>
+      <c r="F359" s="1">
+        <f>'[1]MS_V2-6'!BN483</f>
+        <v>0.17685219233365629</v>
+      </c>
+      <c r="G359" s="1">
+        <f>'[1]MS_V2-6'!BO483</f>
+        <v>-1.4047337475459551</v>
+      </c>
+      <c r="H359" s="1">
+        <f>'[1]MS_V2-6'!BP483</f>
+        <v>-1.2608363489273764</v>
+      </c>
+      <c r="I359" s="1">
+        <f>'[1]MS_V2-6'!BQ483</f>
+        <v>-1.3645012411610347</v>
+      </c>
+      <c r="J359" s="1">
+        <f>'[1]MS_V2-6'!BR483</f>
+        <v>-0.92228923530380358</v>
+      </c>
+      <c r="K359" s="1">
+        <f>'[1]MS_V2-6'!BS483</f>
+        <v>-1.0249919012056437</v>
+      </c>
+      <c r="L359" s="1">
+        <f>'[1]MS_V2-6'!BU483</f>
+        <v>-0.57973598185750197</v>
+      </c>
+      <c r="M359" s="1">
+        <f>'[1]MS_V2-6'!BV483</f>
+        <v>0</v>
+      </c>
+      <c r="N359" s="1">
+        <f>'[1]MS_V2-6'!BW483</f>
+        <v>0</v>
+      </c>
+      <c r="O359" s="1">
+        <f>'[1]MS_V2-6'!BX483</f>
+        <v>0</v>
+      </c>
+      <c r="P359" s="1">
+        <f>'[1]MS_V2-6'!BY483</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -18883,7 +19066,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -18990,10 +19173,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N358"/>
+  <dimension ref="A1:N359"/>
   <sheetViews>
-    <sheetView topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="K358" sqref="K358"/>
+    <sheetView topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="G362" sqref="G362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -34744,7 +34927,7 @@
       </c>
       <c r="B358" s="4">
         <f>[1]BNPP_V2!BD482</f>
-        <v>0.90900000000000003</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="C358" s="4">
         <f>[1]BNPP_V2!BE482</f>
@@ -34756,7 +34939,7 @@
       </c>
       <c r="E358" s="4">
         <f>[1]BNPP_V2!BG482</f>
-        <v>0.30499999999999999</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="F358" s="4">
         <f>[1]BNPP_V2!BH482</f>
@@ -34776,7 +34959,7 @@
       </c>
       <c r="J358" s="4">
         <f>[1]BNPP_V2!BN482</f>
-        <v>0.58937499999999998</v>
+        <v>0.55537499999999995</v>
       </c>
       <c r="K358" s="1">
         <f>[1]BNPP_V2!BO482</f>
@@ -34792,6 +34975,63 @@
       </c>
       <c r="N358" s="1">
         <f>[1]BNPP_V2!BR482</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A359" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B359" s="4">
+        <f>[1]BNPP_V2!BD483</f>
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="C359" s="4">
+        <f>[1]BNPP_V2!BE483</f>
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="D359" s="4">
+        <f>[1]BNPP_V2!BF483</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E359" s="4">
+        <f>[1]BNPP_V2!BG483</f>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="F359" s="4">
+        <f>[1]BNPP_V2!BH483</f>
+        <v>0.19</v>
+      </c>
+      <c r="G359" s="4">
+        <f>[1]BNPP_V2!BI483</f>
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="H359" s="4">
+        <f>[1]BNPP_V2!BJ483</f>
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="I359" s="4">
+        <f>[1]BNPP_V2!BK483</f>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="J359" s="4">
+        <f>[1]BNPP_V2!BN483</f>
+        <v>0.61087500000000006</v>
+      </c>
+      <c r="K359" s="1">
+        <f>[1]BNPP_V2!BO483</f>
+        <v>0</v>
+      </c>
+      <c r="L359" s="1">
+        <f>[1]BNPP_V2!BP483</f>
+        <v>0</v>
+      </c>
+      <c r="M359" s="1">
+        <f>[1]BNPP_V2!BQ483</f>
+        <v>0</v>
+      </c>
+      <c r="N359" s="1">
+        <f>[1]BNPP_V2!BR483</f>
         <v>10</v>
       </c>
     </row>
@@ -34807,7 +35047,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -34898,10 +35138,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F358"/>
+  <dimension ref="A1:F359"/>
   <sheetViews>
-    <sheetView topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="A358" sqref="A358"/>
+    <sheetView topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="B359" sqref="B359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -41881,7 +42121,7 @@
       </c>
       <c r="B357" s="5">
         <f>'[1]MS_V2-6'!CM481</f>
-        <v>-0.66775448507859936</v>
+        <v>-0.66295517286082872</v>
       </c>
       <c r="C357" s="1">
         <f>'[1]MS_V2-6'!CT481</f>
@@ -41906,7 +42146,7 @@
       </c>
       <c r="B358" s="5">
         <f>'[1]MS_V2-6'!CM482</f>
-        <v>-0.67119115281043251</v>
+        <v>-0.64551460258566951</v>
       </c>
       <c r="C358" s="1">
         <f>'[1]MS_V2-6'!CT482</f>
@@ -41922,6 +42162,31 @@
       </c>
       <c r="F358" s="1">
         <f>'[1]MS_V2-6'!CW482</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B359" s="5">
+        <f>'[1]MS_V2-6'!CM483</f>
+        <v>-0.57973598185750197</v>
+      </c>
+      <c r="C359" s="1">
+        <f>'[1]MS_V2-6'!CT483</f>
+        <v>0</v>
+      </c>
+      <c r="D359" s="1">
+        <f>'[1]MS_V2-6'!CU483</f>
+        <v>0</v>
+      </c>
+      <c r="E359" s="1">
+        <f>'[1]MS_V2-6'!CV483</f>
+        <v>0</v>
+      </c>
+      <c r="F359" s="1">
+        <f>'[1]MS_V2-6'!CW483</f>
         <v>10</v>
       </c>
     </row>
@@ -41933,10 +42198,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F358"/>
+  <dimension ref="A1:F359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="C351" sqref="C351"/>
+    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
+      <selection activeCell="C361" sqref="C361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -49097,15 +49362,15 @@
       </c>
       <c r="B358" s="4">
         <f>[1]BNPP_V2!BV482</f>
-        <v>0.66050615818350344</v>
+        <v>0.64141698143117565</v>
       </c>
       <c r="C358" s="1">
         <f>[1]BNPP_V2!CD482</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D358" s="1">
         <f>[1]BNPP_V2!CE482</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E358" s="1">
         <f>[1]BNPP_V2!CF482</f>
@@ -49113,6 +49378,31 @@
       </c>
       <c r="F358" s="1">
         <f>[1]BNPP_V2!CG482</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359" s="2">
+        <v>45566</v>
+      </c>
+      <c r="B359" s="4">
+        <f>[1]BNPP_V2!BV483</f>
+        <v>0.69955506210814089</v>
+      </c>
+      <c r="C359" s="1">
+        <f>[1]BNPP_V2!CD483</f>
+        <v>0</v>
+      </c>
+      <c r="D359" s="1">
+        <f>[1]BNPP_V2!CE483</f>
+        <v>10</v>
+      </c>
+      <c r="E359" s="1">
+        <f>[1]BNPP_V2!CF483</f>
+        <v>0</v>
+      </c>
+      <c r="F359" s="1">
+        <f>[1]BNPP_V2!CG483</f>
         <v>0</v>
       </c>
     </row>

--- a/data/streamlit_24_cycle.xlsx
+++ b/data/streamlit_24_cycle.xlsx
@@ -446,7 +446,7 @@
             <v>-1.2865390195559898</v>
           </cell>
           <cell r="BP482">
-            <v>-1.2827045124508754</v>
+            <v>-1.2188552781901245</v>
           </cell>
           <cell r="BQ482">
             <v>-1.2974447151842314</v>
@@ -458,7 +458,7 @@
             <v>-1.4946983838560315</v>
           </cell>
           <cell r="BU482">
-            <v>-0.64551460258566951</v>
+            <v>-0.63912967915959451</v>
           </cell>
           <cell r="BV482">
             <v>0</v>
@@ -473,7 +473,7 @@
             <v>0</v>
           </cell>
           <cell r="CM482">
-            <v>-0.64551460258566951</v>
+            <v>-0.63912967915959451</v>
           </cell>
           <cell r="CT482">
             <v>0</v>
@@ -502,16 +502,16 @@
             <v>0.36032485545141768</v>
           </cell>
           <cell r="BN483">
-            <v>0.17685219233365629</v>
+            <v>0.29599472190580278</v>
           </cell>
           <cell r="BO483">
             <v>-1.4047337475459551</v>
           </cell>
           <cell r="BP483">
-            <v>-1.2608363489273764</v>
+            <v>-1.1984046835488744</v>
           </cell>
           <cell r="BQ483">
-            <v>-1.3645012411610347</v>
+            <v>-1.3468167696999735</v>
           </cell>
           <cell r="BR483">
             <v>-0.92228923530380358</v>
@@ -520,7 +520,7 @@
             <v>-1.0249919012056437</v>
           </cell>
           <cell r="BU483">
-            <v>-0.57973598185750197</v>
+            <v>-0.55981011521633095</v>
           </cell>
           <cell r="BV483">
             <v>0</v>
@@ -535,7 +535,7 @@
             <v>10</v>
           </cell>
           <cell r="CM483">
-            <v>-0.57973598185750197</v>
+            <v>-0.55981011521633095</v>
           </cell>
           <cell r="CT483">
             <v>0</v>
@@ -707,7 +707,7 @@
         </row>
         <row r="483">
           <cell r="BD483">
-            <v>0.91700000000000004</v>
+            <v>0.9</v>
           </cell>
           <cell r="BE483">
             <v>0.74399999999999999</v>
@@ -731,7 +731,7 @@
             <v>0.13200000000000001</v>
           </cell>
           <cell r="BN483">
-            <v>0.61087500000000006</v>
+            <v>0.61299999999999999</v>
           </cell>
           <cell r="BO483">
             <v>0</v>
@@ -746,7 +746,7 @@
             <v>10</v>
           </cell>
           <cell r="BV483">
-            <v>0.69955506210814089</v>
+            <v>0.70119360505715278</v>
           </cell>
           <cell r="CD483">
             <v>0</v>
@@ -1031,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P359"/>
+  <dimension ref="A1:P360"/>
   <sheetViews>
-    <sheetView topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="O359" sqref="O359"/>
+    <sheetView topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="L364" sqref="L364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -18955,7 +18955,7 @@
       </c>
       <c r="H358" s="1">
         <f>'[1]MS_V2-6'!BP482</f>
-        <v>-1.2827045124508754</v>
+        <v>-1.2188552781901245</v>
       </c>
       <c r="I358" s="1">
         <f>'[1]MS_V2-6'!BQ482</f>
@@ -18971,7 +18971,7 @@
       </c>
       <c r="L358" s="1">
         <f>'[1]MS_V2-6'!BU482</f>
-        <v>-0.64551460258566951</v>
+        <v>-0.63912967915959451</v>
       </c>
       <c r="M358" s="1">
         <f>'[1]MS_V2-6'!BV482</f>
@@ -19012,7 +19012,7 @@
       </c>
       <c r="F359" s="1">
         <f>'[1]MS_V2-6'!BN483</f>
-        <v>0.17685219233365629</v>
+        <v>0.29599472190580278</v>
       </c>
       <c r="G359" s="1">
         <f>'[1]MS_V2-6'!BO483</f>
@@ -19020,11 +19020,11 @@
       </c>
       <c r="H359" s="1">
         <f>'[1]MS_V2-6'!BP483</f>
-        <v>-1.2608363489273764</v>
+        <v>-1.1984046835488744</v>
       </c>
       <c r="I359" s="1">
         <f>'[1]MS_V2-6'!BQ483</f>
-        <v>-1.3645012411610347</v>
+        <v>-1.3468167696999735</v>
       </c>
       <c r="J359" s="1">
         <f>'[1]MS_V2-6'!BR483</f>
@@ -19036,7 +19036,7 @@
       </c>
       <c r="L359" s="1">
         <f>'[1]MS_V2-6'!BU483</f>
-        <v>-0.57973598185750197</v>
+        <v>-0.55981011521633095</v>
       </c>
       <c r="M359" s="1">
         <f>'[1]MS_V2-6'!BV483</f>
@@ -19052,6 +19052,56 @@
       </c>
       <c r="P359" s="1">
         <f>'[1]MS_V2-6'!BY483</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A360" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B360" s="1">
+        <v>0.32147708840392641</v>
+      </c>
+      <c r="C360" s="1">
+        <v>0.10203359886617062</v>
+      </c>
+      <c r="D360" s="1">
+        <v>-0.69642758058190601</v>
+      </c>
+      <c r="E360" s="1">
+        <v>0.35257152346208748</v>
+      </c>
+      <c r="F360" s="1">
+        <v>0.29925317222602271</v>
+      </c>
+      <c r="G360" s="1">
+        <v>-0.99914848557552183</v>
+      </c>
+      <c r="H360" s="1">
+        <v>-1.1783027971076556</v>
+      </c>
+      <c r="I360" s="1">
+        <v>-1.5109795858607984</v>
+      </c>
+      <c r="J360" s="1">
+        <v>-0.23776530204241186</v>
+      </c>
+      <c r="K360" s="1">
+        <v>-0.93167900537472337</v>
+      </c>
+      <c r="L360" s="1">
+        <v>-0.44789673735848101</v>
+      </c>
+      <c r="M360" s="1">
+        <v>0</v>
+      </c>
+      <c r="N360" s="1">
+        <v>0</v>
+      </c>
+      <c r="O360" s="1">
+        <v>0</v>
+      </c>
+      <c r="P360" s="1">
         <v>10</v>
       </c>
     </row>
@@ -19066,7 +19116,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -19173,10 +19223,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N359"/>
+  <dimension ref="A1:N360"/>
   <sheetViews>
-    <sheetView topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="G362" sqref="G362"/>
+    <sheetView topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="I366" sqref="I366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -34984,7 +35034,7 @@
       </c>
       <c r="B359" s="4">
         <f>[1]BNPP_V2!BD483</f>
-        <v>0.91700000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="C359" s="4">
         <f>[1]BNPP_V2!BE483</f>
@@ -35016,7 +35066,7 @@
       </c>
       <c r="J359" s="4">
         <f>[1]BNPP_V2!BN483</f>
-        <v>0.61087500000000006</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="K359" s="1">
         <f>[1]BNPP_V2!BO483</f>
@@ -35032,6 +35082,50 @@
       </c>
       <c r="N359" s="1">
         <f>[1]BNPP_V2!BR483</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A360" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B360" s="4">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="C360" s="4">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="D360" s="4">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="E360" s="4">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="F360" s="4">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G360" s="4">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="H360" s="4">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="I360" s="4">
+        <v>0.495</v>
+      </c>
+      <c r="J360" s="4">
+        <v>0.54374999999999996</v>
+      </c>
+      <c r="K360" s="1">
+        <v>0</v>
+      </c>
+      <c r="L360" s="1">
+        <v>0</v>
+      </c>
+      <c r="M360" s="1">
+        <v>0</v>
+      </c>
+      <c r="N360" s="1">
         <v>10</v>
       </c>
     </row>
@@ -35138,10 +35232,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F359"/>
+  <dimension ref="A1:F360"/>
   <sheetViews>
-    <sheetView topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="B359" sqref="B359"/>
+    <sheetView topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="D365" sqref="D365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -42146,7 +42240,7 @@
       </c>
       <c r="B358" s="5">
         <f>'[1]MS_V2-6'!CM482</f>
-        <v>-0.64551460258566951</v>
+        <v>-0.63912967915959451</v>
       </c>
       <c r="C358" s="1">
         <f>'[1]MS_V2-6'!CT482</f>
@@ -42171,7 +42265,7 @@
       </c>
       <c r="B359" s="5">
         <f>'[1]MS_V2-6'!CM483</f>
-        <v>-0.57973598185750197</v>
+        <v>-0.55981011521633095</v>
       </c>
       <c r="C359" s="1">
         <f>'[1]MS_V2-6'!CT483</f>
@@ -42188,6 +42282,26 @@
       <c r="F359" s="1">
         <f>'[1]MS_V2-6'!CW483</f>
         <v>10</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B360" s="5">
+        <v>-0.44789673735848101</v>
+      </c>
+      <c r="C360" s="1">
+        <v>10</v>
+      </c>
+      <c r="D360" s="1">
+        <v>0</v>
+      </c>
+      <c r="E360" s="1">
+        <v>0</v>
+      </c>
+      <c r="F360" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -42198,10 +42312,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F359"/>
+  <dimension ref="A1:F360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
-      <selection activeCell="C361" sqref="C361"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="J359" sqref="J359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -49387,7 +49501,7 @@
       </c>
       <c r="B359" s="4">
         <f>[1]BNPP_V2!BV483</f>
-        <v>0.69955506210814089</v>
+        <v>0.70119360505715278</v>
       </c>
       <c r="C359" s="1">
         <f>[1]BNPP_V2!CD483</f>
@@ -49403,6 +49517,26 @@
       </c>
       <c r="F359" s="1">
         <f>[1]BNPP_V2!CG483</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360" s="2">
+        <v>45597</v>
+      </c>
+      <c r="B360" s="4">
+        <v>0.60857626821502464</v>
+      </c>
+      <c r="C360" s="1">
+        <v>10</v>
+      </c>
+      <c r="D360" s="1">
+        <v>0</v>
+      </c>
+      <c r="E360" s="1">
+        <v>0</v>
+      </c>
+      <c r="F360" s="1">
         <v>0</v>
       </c>
     </row>

--- a/data/streamlit_24_cycle.xlsx
+++ b/data/streamlit_24_cycle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CycleE" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
             <v>-1.4047337475459551</v>
           </cell>
           <cell r="BP483">
-            <v>-1.1984046835488744</v>
+            <v>-1.134610267656287</v>
           </cell>
           <cell r="BQ483">
             <v>-1.3468167696999735</v>
@@ -520,7 +520,7 @@
             <v>-1.0249919012056437</v>
           </cell>
           <cell r="BU483">
-            <v>-0.55981011521633095</v>
+            <v>-0.55343067362707221</v>
           </cell>
           <cell r="BV483">
             <v>0</v>
@@ -535,7 +535,7 @@
             <v>10</v>
           </cell>
           <cell r="CM483">
-            <v>-0.55981011521633095</v>
+            <v>-0.55343067362707221</v>
           </cell>
           <cell r="CT483">
             <v>0</v>
@@ -660,7 +660,7 @@
             <v>0.09</v>
           </cell>
           <cell r="BG482">
-            <v>0.56100000000000005</v>
+            <v>0.59499999999999997</v>
           </cell>
           <cell r="BH482">
             <v>0.18099999999999999</v>
@@ -675,7 +675,7 @@
             <v>0.30499999999999999</v>
           </cell>
           <cell r="BN482">
-            <v>0.55537499999999995</v>
+            <v>0.55112499999999986</v>
           </cell>
           <cell r="BO482">
             <v>0</v>
@@ -690,7 +690,7 @@
             <v>10</v>
           </cell>
           <cell r="BV482">
-            <v>0.64141698143117565</v>
+            <v>0.6390865180123837</v>
           </cell>
           <cell r="CD482">
             <v>10</v>
@@ -1031,11 +1031,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P360"/>
+  <dimension ref="A1:P361"/>
   <sheetViews>
-    <sheetView topLeftCell="A341" workbookViewId="0">
-      <selection activeCell="L364" sqref="L364"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19020,7 +19018,7 @@
       </c>
       <c r="H359" s="1">
         <f>'[1]MS_V2-6'!BP483</f>
-        <v>-1.1984046835488744</v>
+        <v>-1.134610267656287</v>
       </c>
       <c r="I359" s="1">
         <f>'[1]MS_V2-6'!BQ483</f>
@@ -19036,7 +19034,7 @@
       </c>
       <c r="L359" s="1">
         <f>'[1]MS_V2-6'!BU483</f>
-        <v>-0.55981011521633095</v>
+        <v>-0.55343067362707221</v>
       </c>
       <c r="M359" s="1">
         <f>'[1]MS_V2-6'!BV483</f>
@@ -19102,6 +19100,56 @@
         <v>0</v>
       </c>
       <c r="P360" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A361" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B361" s="1">
+        <v>0.32369824339786957</v>
+      </c>
+      <c r="C361" s="1">
+        <v>-0.41899762743855734</v>
+      </c>
+      <c r="D361" s="1">
+        <v>-0.22013653026166383</v>
+      </c>
+      <c r="E361" s="1">
+        <v>0.28779776171022547</v>
+      </c>
+      <c r="F361" s="1">
+        <v>0.25885764052360527</v>
+      </c>
+      <c r="G361" s="1">
+        <v>-0.80222860693380216</v>
+      </c>
+      <c r="H361" s="1">
+        <v>-1.0972634210688037</v>
+      </c>
+      <c r="I361" s="1">
+        <v>-2.3201434337871603</v>
+      </c>
+      <c r="J361" s="1">
+        <v>-0.24514774018454616</v>
+      </c>
+      <c r="K361" s="1">
+        <v>-2.4812786528742277</v>
+      </c>
+      <c r="L361" s="1">
+        <v>-0.67148423669170609</v>
+      </c>
+      <c r="M361" s="1">
+        <v>0</v>
+      </c>
+      <c r="N361" s="1">
+        <v>0</v>
+      </c>
+      <c r="O361" s="1">
+        <v>0</v>
+      </c>
+      <c r="P361" s="1">
         <v>10</v>
       </c>
     </row>
@@ -19223,10 +19271,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N360"/>
+  <dimension ref="A1:N361"/>
   <sheetViews>
     <sheetView topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="I366" sqref="I366"/>
+      <selection activeCell="F364" sqref="F364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -34989,7 +35037,7 @@
       </c>
       <c r="E358" s="4">
         <f>[1]BNPP_V2!BG482</f>
-        <v>0.56100000000000005</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="F358" s="4">
         <f>[1]BNPP_V2!BH482</f>
@@ -35009,7 +35057,7 @@
       </c>
       <c r="J358" s="4">
         <f>[1]BNPP_V2!BN482</f>
-        <v>0.55537499999999995</v>
+        <v>0.55112499999999986</v>
       </c>
       <c r="K358" s="1">
         <f>[1]BNPP_V2!BO482</f>
@@ -35127,6 +35175,50 @@
       </c>
       <c r="N360" s="1">
         <v>10</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A361" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B361" s="4">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="C361" s="4">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="D361" s="4">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="E361" s="4">
+        <v>0.314</v>
+      </c>
+      <c r="F361" s="4">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="G361" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="H361" s="4">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I361" s="4">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="J361" s="4">
+        <v>0.57687500000000003</v>
+      </c>
+      <c r="K361" s="1">
+        <v>0</v>
+      </c>
+      <c r="L361" s="1">
+        <v>0</v>
+      </c>
+      <c r="M361" s="1">
+        <v>10</v>
+      </c>
+      <c r="N361" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -35232,10 +35324,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F360"/>
+  <dimension ref="A1:F361"/>
   <sheetViews>
     <sheetView topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="D365" sqref="D365"/>
+      <selection activeCell="B361" sqref="B361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -42265,7 +42357,7 @@
       </c>
       <c r="B359" s="5">
         <f>'[1]MS_V2-6'!CM483</f>
-        <v>-0.55981011521633095</v>
+        <v>-0.55343067362707221</v>
       </c>
       <c r="C359" s="1">
         <f>'[1]MS_V2-6'!CT483</f>
@@ -42301,6 +42393,26 @@
         <v>0</v>
       </c>
       <c r="F360" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B361" s="1">
+        <v>-0.67148423669170609</v>
+      </c>
+      <c r="C361" s="1">
+        <v>10</v>
+      </c>
+      <c r="D361" s="1">
+        <v>0</v>
+      </c>
+      <c r="E361" s="1">
+        <v>0</v>
+      </c>
+      <c r="F361" s="1">
         <v>0</v>
       </c>
     </row>
@@ -42312,10 +42424,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F360"/>
+  <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="J359" sqref="J359"/>
+    <sheetView topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="A361" sqref="A361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -49476,7 +49588,7 @@
       </c>
       <c r="B358" s="4">
         <f>[1]BNPP_V2!BV482</f>
-        <v>0.64141698143117565</v>
+        <v>0.6390865180123837</v>
       </c>
       <c r="C358" s="1">
         <f>[1]BNPP_V2!CD482</f>
@@ -49537,6 +49649,26 @@
         <v>0</v>
       </c>
       <c r="F360" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361" s="2">
+        <v>45627</v>
+      </c>
+      <c r="B361" s="4">
+        <v>0.57687500000000003</v>
+      </c>
+      <c r="C361" s="1">
+        <v>0</v>
+      </c>
+      <c r="D361" s="1">
+        <v>0</v>
+      </c>
+      <c r="E361" s="1">
+        <v>10</v>
+      </c>
+      <c r="F361" s="1">
         <v>0</v>
       </c>
     </row>

--- a/data/streamlit_24_cycle.xlsx
+++ b/data/streamlit_24_cycle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CycleE" sheetId="1" r:id="rId1"/>
@@ -1031,9 +1031,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P361"/>
+  <dimension ref="A1:P362"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="G365" sqref="G365"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19150,6 +19152,56 @@
         <v>0</v>
       </c>
       <c r="P361" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A362" s="2">
+        <v>45658</v>
+      </c>
+      <c r="B362" s="1">
+        <v>0.33739246966471875</v>
+      </c>
+      <c r="C362" s="1">
+        <v>-0.47289317094695466</v>
+      </c>
+      <c r="D362" s="1">
+        <v>-0.18603956225386598</v>
+      </c>
+      <c r="E362" s="1">
+        <v>0.33838324663365582</v>
+      </c>
+      <c r="F362" s="1">
+        <v>0.23443186870688637</v>
+      </c>
+      <c r="G362" s="1">
+        <v>-0.47025139483365092</v>
+      </c>
+      <c r="H362" s="1">
+        <v>-1.1710551624743932</v>
+      </c>
+      <c r="I362" s="1">
+        <v>-2.2761710077198276</v>
+      </c>
+      <c r="J362" s="1">
+        <v>-1.6210336360097586E-2</v>
+      </c>
+      <c r="K362" s="1">
+        <v>-1.4961481169914215</v>
+      </c>
+      <c r="L362" s="1">
+        <v>-0.51785611665749509</v>
+      </c>
+      <c r="M362" s="1">
+        <v>0</v>
+      </c>
+      <c r="N362" s="1">
+        <v>0</v>
+      </c>
+      <c r="O362" s="1">
+        <v>0</v>
+      </c>
+      <c r="P362" s="1">
         <v>10</v>
       </c>
     </row>
@@ -19271,10 +19323,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N361"/>
+  <dimension ref="A1:N362"/>
   <sheetViews>
     <sheetView topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="F364" sqref="F364"/>
+      <selection activeCell="H362" sqref="H362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -35221,6 +35273,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A362" s="2">
+        <v>45658</v>
+      </c>
+      <c r="B362" s="4">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="C362" s="4">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D362" s="4">
+        <v>0.371</v>
+      </c>
+      <c r="E362" s="4">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="F362" s="4">
+        <v>0.157</v>
+      </c>
+      <c r="G362" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="H362" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I362" s="4">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="J362" s="4">
+        <v>0.56237500000000007</v>
+      </c>
+      <c r="K362" s="1">
+        <v>0</v>
+      </c>
+      <c r="L362" s="1">
+        <v>0</v>
+      </c>
+      <c r="M362" s="1">
+        <v>0</v>
+      </c>
+      <c r="N362" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35233,7 +35329,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -35324,10 +35420,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F361"/>
+  <dimension ref="A1:F362"/>
   <sheetViews>
     <sheetView topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="B361" sqref="B361"/>
+      <selection activeCell="A362" sqref="A362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -42416,6 +42512,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362" s="2">
+        <v>45658</v>
+      </c>
+      <c r="B362" s="1">
+        <v>-0.51785611665749509</v>
+      </c>
+      <c r="C362" s="1">
+        <v>10</v>
+      </c>
+      <c r="D362" s="1">
+        <v>0</v>
+      </c>
+      <c r="E362" s="1">
+        <v>0</v>
+      </c>
+      <c r="F362" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42424,10 +42540,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F361"/>
+  <dimension ref="A1:F362"/>
   <sheetViews>
-    <sheetView topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="A361" sqref="A361"/>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="G362" sqref="G362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -49672,6 +49788,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362" s="2">
+        <v>45658</v>
+      </c>
+      <c r="B362" s="4">
+        <v>0.56237500000000007</v>
+      </c>
+      <c r="C362" s="1">
+        <v>10</v>
+      </c>
+      <c r="D362" s="1">
+        <v>0</v>
+      </c>
+      <c r="E362" s="1">
+        <v>0</v>
+      </c>
+      <c r="F362" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/streamlit_24_cycle.xlsx
+++ b/data/streamlit_24_cycle.xlsx
@@ -1031,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P362"/>
+  <dimension ref="A1:P363"/>
   <sheetViews>
-    <sheetView topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="G365" sqref="G365"/>
+    <sheetView topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="A363" sqref="A363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -19203,6 +19203,56 @@
       </c>
       <c r="P362" s="1">
         <v>10</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A363" s="2">
+        <v>45689</v>
+      </c>
+      <c r="B363" s="1">
+        <v>0.33593711423446221</v>
+      </c>
+      <c r="C363" s="1">
+        <v>-0.89772490641489522</v>
+      </c>
+      <c r="D363" s="1">
+        <v>-0.36198691863287302</v>
+      </c>
+      <c r="E363" s="1">
+        <v>0.38813286187134211</v>
+      </c>
+      <c r="F363" s="1">
+        <v>0.13527495234094464</v>
+      </c>
+      <c r="G363" s="1">
+        <v>-0.58544791072894342</v>
+      </c>
+      <c r="H363" s="1">
+        <v>-1.1209395180733204</v>
+      </c>
+      <c r="I363" s="1">
+        <v>-2.2368054632919301</v>
+      </c>
+      <c r="J363" s="1">
+        <v>-0.90346115606966271</v>
+      </c>
+      <c r="K363" s="1">
+        <v>-1.9542950178746499</v>
+      </c>
+      <c r="L363" s="1">
+        <v>-0.72013159626395262</v>
+      </c>
+      <c r="M363" s="1">
+        <v>0</v>
+      </c>
+      <c r="N363" s="1">
+        <v>0</v>
+      </c>
+      <c r="O363" s="1">
+        <v>10</v>
+      </c>
+      <c r="P363" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19323,10 +19373,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N362"/>
+  <dimension ref="A1:N363"/>
   <sheetViews>
     <sheetView topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="H362" sqref="H362"/>
+      <selection activeCell="B363" sqref="B363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -35317,6 +35367,50 @@
         <v>10</v>
       </c>
     </row>
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A363" s="2">
+        <v>45689</v>
+      </c>
+      <c r="B363" s="4">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="C363" s="4">
+        <v>0.629</v>
+      </c>
+      <c r="D363" s="4">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="E363" s="4">
+        <v>0.371</v>
+      </c>
+      <c r="F363" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G363" s="4">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="H363" s="4">
+        <v>0.107</v>
+      </c>
+      <c r="I363" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J363" s="4">
+        <v>0.62537500000000001</v>
+      </c>
+      <c r="K363" s="1">
+        <v>0</v>
+      </c>
+      <c r="L363" s="1">
+        <v>0</v>
+      </c>
+      <c r="M363" s="1">
+        <v>10</v>
+      </c>
+      <c r="N363" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35329,7 +35423,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -35420,10 +35514,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F362"/>
+  <dimension ref="A1:F363"/>
   <sheetViews>
     <sheetView topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="A362" sqref="A362"/>
+      <selection activeCell="A363" sqref="A363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -42532,6 +42626,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363" s="2">
+        <v>45689</v>
+      </c>
+      <c r="B363" s="5">
+        <v>-0.72013159626395262</v>
+      </c>
+      <c r="C363" s="1">
+        <v>0</v>
+      </c>
+      <c r="D363" s="1">
+        <v>0</v>
+      </c>
+      <c r="E363" s="1">
+        <v>10</v>
+      </c>
+      <c r="F363" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42540,10 +42654,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F362"/>
+  <dimension ref="A1:F363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="G362" sqref="G362"/>
+    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="C363" sqref="C363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -49808,6 +49922,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363" s="2">
+        <v>45689</v>
+      </c>
+      <c r="B363" s="4">
+        <v>0.67610558159164258</v>
+      </c>
+      <c r="C363" s="1">
+        <v>0</v>
+      </c>
+      <c r="D363" s="1">
+        <v>0</v>
+      </c>
+      <c r="E363" s="1">
+        <v>10</v>
+      </c>
+      <c r="F363" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/streamlit_24_cycle.xlsx
+++ b/data/streamlit_24_cycle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CycleE" sheetId="1" r:id="rId1"/>
@@ -1031,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P363"/>
+  <dimension ref="A1:P364"/>
   <sheetViews>
     <sheetView topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="A363" sqref="A363"/>
+      <selection activeCell="G364" sqref="G364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -19210,7 +19210,7 @@
         <v>45689</v>
       </c>
       <c r="B363" s="1">
-        <v>0.33593711423446221</v>
+        <v>0.33580615495235605</v>
       </c>
       <c r="C363" s="1">
         <v>-0.89772490641489522</v>
@@ -19219,28 +19219,28 @@
         <v>-0.36198691863287302</v>
       </c>
       <c r="E363" s="1">
-        <v>0.38813286187134211</v>
+        <v>0.33048936753401426</v>
       </c>
       <c r="F363" s="1">
-        <v>0.13527495234094464</v>
+        <v>3.0158430632903098E-2</v>
       </c>
       <c r="G363" s="1">
         <v>-0.58544791072894342</v>
       </c>
       <c r="H363" s="1">
-        <v>-1.1209395180733204</v>
+        <v>-1.5702675545325302</v>
       </c>
       <c r="I363" s="1">
-        <v>-2.2368054632919301</v>
+        <v>-1.4970862691937232</v>
       </c>
       <c r="J363" s="1">
         <v>-0.90346115606966271</v>
       </c>
       <c r="K363" s="1">
-        <v>-1.9542950178746499</v>
+        <v>-0.49105962646988127</v>
       </c>
       <c r="L363" s="1">
-        <v>-0.72013159626395262</v>
+        <v>-0.56105803889232353</v>
       </c>
       <c r="M363" s="1">
         <v>0</v>
@@ -19252,6 +19252,56 @@
         <v>10</v>
       </c>
       <c r="P363" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A364" s="2">
+        <v>45717</v>
+      </c>
+      <c r="B364" s="1">
+        <v>0.33436825496052186</v>
+      </c>
+      <c r="C364" s="1">
+        <v>-1.2950301783828297</v>
+      </c>
+      <c r="D364" s="1">
+        <v>-0.19269899760618375</v>
+      </c>
+      <c r="E364" s="1">
+        <v>0.32393212106534675</v>
+      </c>
+      <c r="F364" s="1">
+        <v>3.5993964105008006E-2</v>
+      </c>
+      <c r="G364" s="1">
+        <v>-0.83983360509725702</v>
+      </c>
+      <c r="H364" s="1">
+        <v>-1.540223809296327</v>
+      </c>
+      <c r="I364" s="1">
+        <v>-1.5497212748573355</v>
+      </c>
+      <c r="J364" s="1">
+        <v>0.95572602093627668</v>
+      </c>
+      <c r="K364" s="1">
+        <v>-0.91143243458031442</v>
+      </c>
+      <c r="L364" s="1">
+        <v>-0.46789199387530933</v>
+      </c>
+      <c r="M364" s="1">
+        <v>0</v>
+      </c>
+      <c r="N364" s="1">
+        <v>0</v>
+      </c>
+      <c r="O364" s="1">
+        <v>10</v>
+      </c>
+      <c r="P364" s="1">
         <v>0</v>
       </c>
     </row>
@@ -19266,7 +19316,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -19373,10 +19423,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N363"/>
+  <dimension ref="A1:N364"/>
   <sheetViews>
     <sheetView topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="B363" sqref="B363"/>
+      <selection activeCell="F377" sqref="F377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -35411,6 +35461,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A364" s="2">
+        <v>45717</v>
+      </c>
+      <c r="B364" s="4">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="C364" s="4">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="D364" s="4">
+        <v>0.247</v>
+      </c>
+      <c r="E364" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="F364" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G364" s="4">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="H364" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I364" s="4">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="J364" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="K364" s="1">
+        <v>0</v>
+      </c>
+      <c r="L364" s="1">
+        <v>0</v>
+      </c>
+      <c r="M364" s="1">
+        <v>10</v>
+      </c>
+      <c r="N364" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35422,8 +35516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -35514,10 +35608,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F363"/>
+  <dimension ref="A1:F364"/>
   <sheetViews>
     <sheetView topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="A363" sqref="A363"/>
+      <selection activeCell="B363" sqref="B363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -42630,19 +42724,39 @@
       <c r="A363" s="2">
         <v>45689</v>
       </c>
-      <c r="B363" s="5">
-        <v>-0.72013159626395262</v>
+      <c r="B363" s="1">
+        <v>-0.56105803889232353</v>
       </c>
       <c r="C363" s="1">
         <v>0</v>
       </c>
       <c r="D363" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E363" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F363" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A364" s="2">
+        <v>45717</v>
+      </c>
+      <c r="B364" s="1">
+        <v>-0.46789199387530933</v>
+      </c>
+      <c r="C364" s="1">
+        <v>0</v>
+      </c>
+      <c r="D364" s="1">
+        <v>10</v>
+      </c>
+      <c r="E364" s="1">
+        <v>0</v>
+      </c>
+      <c r="F364" s="1">
         <v>0</v>
       </c>
     </row>
@@ -42654,10 +42768,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F363"/>
+  <dimension ref="A1:F364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="C363" sqref="C363"/>
+    <sheetView topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="D369" sqref="D369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -49942,6 +50056,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A364" s="2">
+        <v>45717</v>
+      </c>
+      <c r="B364" s="4">
+        <v>0.5853149053463883</v>
+      </c>
+      <c r="C364" s="1">
+        <v>0</v>
+      </c>
+      <c r="D364" s="1">
+        <v>0</v>
+      </c>
+      <c r="E364" s="1">
+        <v>0</v>
+      </c>
+      <c r="F364" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/streamlit_24_cycle.xlsx
+++ b/data/streamlit_24_cycle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="CycleE" sheetId="1" r:id="rId1"/>
@@ -1031,11 +1031,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P364"/>
+  <dimension ref="A1:P365"/>
   <sheetViews>
-    <sheetView topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="G364" sqref="G364"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19305,6 +19303,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A365" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B365" s="1">
+        <v>0.3254653422521972</v>
+      </c>
+      <c r="C365" s="1">
+        <v>-1.7857344189116007</v>
+      </c>
+      <c r="D365" s="1">
+        <v>0.18514933291107302</v>
+      </c>
+      <c r="E365" s="1">
+        <v>0.26019404542963037</v>
+      </c>
+      <c r="F365" s="1">
+        <v>-0.1091184794726405</v>
+      </c>
+      <c r="G365" s="1">
+        <v>-0.89336617043023703</v>
+      </c>
+      <c r="H365" s="1">
+        <v>-1.9038364401225683</v>
+      </c>
+      <c r="I365" s="1">
+        <v>-1.6219463381775292</v>
+      </c>
+      <c r="J365" s="1">
+        <v>0.37807084786177914</v>
+      </c>
+      <c r="K365" s="1">
+        <v>-0.56172610184561467</v>
+      </c>
+      <c r="L365" s="1">
+        <v>-0.57268483805055115</v>
+      </c>
+      <c r="M365" s="1">
+        <v>0</v>
+      </c>
+      <c r="N365" s="1">
+        <v>0</v>
+      </c>
+      <c r="O365" s="1">
+        <v>10</v>
+      </c>
+      <c r="P365" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19315,9 +19363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19423,11 +19469,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N364"/>
+  <dimension ref="A1:N365"/>
   <sheetViews>
-    <sheetView topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="F377" sqref="F377"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -35505,6 +35549,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A365" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B365" s="4">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="C365" s="4">
+        <v>0.42200000000000004</v>
+      </c>
+      <c r="D365" s="4">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E365" s="4">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="F365" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G365" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="H365" s="4">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="I365" s="4">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="J365" s="4">
+        <v>0.59437499999999999</v>
+      </c>
+      <c r="K365" s="1">
+        <v>0</v>
+      </c>
+      <c r="L365" s="1">
+        <v>0</v>
+      </c>
+      <c r="M365" s="1">
+        <v>10</v>
+      </c>
+      <c r="N365" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35516,9 +35604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -35608,11 +35694,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F364"/>
+  <dimension ref="A1:F365"/>
   <sheetViews>
-    <sheetView topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="B363" sqref="B363"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -42760,6 +42844,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A365" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B365" s="5">
+        <v>-0.57268483805055115</v>
+      </c>
+      <c r="C365" s="1">
+        <v>0</v>
+      </c>
+      <c r="D365" s="1">
+        <v>10</v>
+      </c>
+      <c r="E365" s="1">
+        <v>0</v>
+      </c>
+      <c r="F365" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42768,11 +42872,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F364"/>
+  <dimension ref="A1:F365"/>
   <sheetViews>
-    <sheetView topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="D369" sqref="D369"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -50076,6 +50178,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A365" s="2">
+        <v>45748</v>
+      </c>
+      <c r="B365" s="4">
+        <v>0.61271238635605285</v>
+      </c>
+      <c r="C365" s="1">
+        <v>0</v>
+      </c>
+      <c r="D365" s="1">
+        <v>0</v>
+      </c>
+      <c r="E365" s="1">
+        <v>10</v>
+      </c>
+      <c r="F365" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/streamlit_24_cycle.xlsx
+++ b/data/streamlit_24_cycle.xlsx
@@ -1031,7 +1031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P365"/>
+  <dimension ref="A1:P366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19353,6 +19353,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A366" s="2">
+        <v>45778</v>
+      </c>
+      <c r="B366" s="1">
+        <v>0.31688788539267843</v>
+      </c>
+      <c r="C366" s="1">
+        <v>-0.89921848768945434</v>
+      </c>
+      <c r="D366" s="1">
+        <v>0.11105531781229767</v>
+      </c>
+      <c r="E366" s="1">
+        <v>0.25455449348246578</v>
+      </c>
+      <c r="F366" s="1">
+        <v>2.9654340062387034E-2</v>
+      </c>
+      <c r="G366" s="1">
+        <v>-0.92589734602025586</v>
+      </c>
+      <c r="H366" s="1">
+        <v>-2.3030045335833429</v>
+      </c>
+      <c r="I366" s="1">
+        <v>-1.6223139073723947</v>
+      </c>
+      <c r="J366" s="1">
+        <v>0.52906201062362479</v>
+      </c>
+      <c r="K366" s="1">
+        <v>-0.45008935810263595</v>
+      </c>
+      <c r="L366" s="1">
+        <v>-0.49593095853946301</v>
+      </c>
+      <c r="M366" s="1">
+        <v>0</v>
+      </c>
+      <c r="N366" s="1">
+        <v>0</v>
+      </c>
+      <c r="O366" s="1">
+        <v>10</v>
+      </c>
+      <c r="P366" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19363,7 +19413,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19469,9 +19521,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N365"/>
+  <dimension ref="A1:N366"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="A366" sqref="A366"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -35590,6 +35644,50 @@
         <v>10</v>
       </c>
       <c r="N365" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A366" s="2">
+        <v>45778</v>
+      </c>
+      <c r="B366" s="4">
+        <v>0.876</v>
+      </c>
+      <c r="C366" s="4">
+        <v>0.44699999999999995</v>
+      </c>
+      <c r="D366" s="4">
+        <v>0.223</v>
+      </c>
+      <c r="E366" s="4">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F366" s="4">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G366" s="4">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="H366" s="4">
+        <v>0.107</v>
+      </c>
+      <c r="I366" s="4">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="J366" s="4">
+        <v>0.57050000000000001</v>
+      </c>
+      <c r="K366" s="1">
+        <v>0</v>
+      </c>
+      <c r="L366" s="1">
+        <v>0</v>
+      </c>
+      <c r="M366" s="1">
+        <v>10</v>
+      </c>
+      <c r="N366" s="1">
         <v>0</v>
       </c>
     </row>
@@ -35694,9 +35792,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F365"/>
+  <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="A370" sqref="A370"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -42864,6 +42964,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A366" s="2">
+        <v>45778</v>
+      </c>
+      <c r="B366" s="1">
+        <v>-0.49593095853946301</v>
+      </c>
+      <c r="C366" s="1">
+        <v>10</v>
+      </c>
+      <c r="D366" s="1">
+        <v>0</v>
+      </c>
+      <c r="E366" s="1">
+        <v>0</v>
+      </c>
+      <c r="F366" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42872,9 +42992,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F365"/>
+  <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="E351" sqref="E351"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -50198,6 +50320,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A366" s="2">
+        <v>45778</v>
+      </c>
+      <c r="B366" s="4">
+        <v>0.57050000000000001</v>
+      </c>
+      <c r="C366" s="1">
+        <v>0</v>
+      </c>
+      <c r="D366" s="1">
+        <v>0</v>
+      </c>
+      <c r="E366" s="1">
+        <v>0</v>
+      </c>
+      <c r="F366" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/streamlit_24_cycle.xlsx
+++ b/data/streamlit_24_cycle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CycleE" sheetId="1" r:id="rId1"/>
@@ -1031,9 +1031,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P366"/>
+  <dimension ref="A1:P367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="F367" sqref="F367"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19403,6 +19405,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A367" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B367" s="1">
+        <v>0.30368495060691653</v>
+      </c>
+      <c r="C367" s="1">
+        <v>-1.2638502844051485</v>
+      </c>
+      <c r="D367" s="1">
+        <v>0.13507098844050039</v>
+      </c>
+      <c r="E367" s="1">
+        <v>0.24849320844842923</v>
+      </c>
+      <c r="F367" s="1">
+        <v>1.6590907914876576E-2</v>
+      </c>
+      <c r="G367" s="1">
+        <v>-0.81659185460613937</v>
+      </c>
+      <c r="H367" s="1">
+        <v>-2.2368632537641808</v>
+      </c>
+      <c r="I367" s="1">
+        <v>-1.5892570269189488</v>
+      </c>
+      <c r="J367" s="1">
+        <v>-6.0313820477516412E-2</v>
+      </c>
+      <c r="K367" s="1">
+        <v>-0.29160506700111621</v>
+      </c>
+      <c r="L367" s="1">
+        <v>-0.55546412517623267</v>
+      </c>
+      <c r="M367" s="1">
+        <v>0</v>
+      </c>
+      <c r="N367" s="1">
+        <v>0</v>
+      </c>
+      <c r="O367" s="1">
+        <v>0</v>
+      </c>
+      <c r="P367" s="1">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19414,7 +19466,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -19521,10 +19573,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N366"/>
+  <dimension ref="A1:N367"/>
   <sheetViews>
     <sheetView topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="A366" sqref="A366"/>
+      <selection activeCell="F367" sqref="F367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -35688,6 +35740,50 @@
         <v>10</v>
       </c>
       <c r="N366" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A367" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B367" s="4">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="C367" s="4">
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="D367" s="4">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="E367" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F367" s="4">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G367" s="4">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="H367" s="4">
+        <v>0.115</v>
+      </c>
+      <c r="I367" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J367" s="4">
+        <v>0.59749999999999992</v>
+      </c>
+      <c r="K367" s="1">
+        <v>0</v>
+      </c>
+      <c r="L367" s="1">
+        <v>0</v>
+      </c>
+      <c r="M367" s="1">
+        <v>10</v>
+      </c>
+      <c r="N367" s="1">
         <v>0</v>
       </c>
     </row>
@@ -35792,10 +35888,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F366"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
     <sheetView topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="A370" sqref="A370"/>
+      <selection activeCell="B367" sqref="B367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -42984,6 +43080,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B367" s="1">
+        <v>-0.55546412517623267</v>
+      </c>
+      <c r="C367" s="1">
+        <v>0</v>
+      </c>
+      <c r="D367" s="1">
+        <v>10</v>
+      </c>
+      <c r="E367" s="1">
+        <v>0</v>
+      </c>
+      <c r="F367" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42992,11 +43108,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F366"/>
+  <dimension ref="A1:F367"/>
   <sheetViews>
-    <sheetView topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="E351" sqref="E351"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -50340,6 +50454,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367" s="2">
+        <v>45809</v>
+      </c>
+      <c r="B367" s="4">
+        <v>0.59749999999999992</v>
+      </c>
+      <c r="C367" s="1">
+        <v>0</v>
+      </c>
+      <c r="D367" s="1">
+        <v>0</v>
+      </c>
+      <c r="E367" s="1">
+        <v>10</v>
+      </c>
+      <c r="F367" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/streamlit_24_cycle.xlsx
+++ b/data/streamlit_24_cycle.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.130.210\채권운용부문\FMVC\Monthly QIS\making_files\SC_2408\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C7383C-116F-45C6-8B7A-B12F0BC80740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CycleE" sheetId="1" r:id="rId1"/>
@@ -42,10 +43,21 @@
     <definedName name="TreeMap">"TreeMap"</definedName>
     <definedName name="Waterfall">"Waterfall"</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -212,7 +224,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
@@ -269,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,9 +295,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -306,8 +315,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Credit_tree_V2"/>
       <sheetName val="MS_V2-6"/>
@@ -633,9 +645,6 @@
           <cell r="BR481">
             <v>10</v>
           </cell>
-          <cell r="BV481">
-            <v>0.63878824036398607</v>
-          </cell>
           <cell r="CD481">
             <v>0</v>
           </cell>
@@ -689,9 +698,6 @@
           <cell r="BR482">
             <v>10</v>
           </cell>
-          <cell r="BV482">
-            <v>0.6390865180123837</v>
-          </cell>
           <cell r="CD482">
             <v>10</v>
           </cell>
@@ -744,9 +750,6 @@
           </cell>
           <cell r="BR483">
             <v>10</v>
-          </cell>
-          <cell r="BV483">
-            <v>0.70119360505715278</v>
           </cell>
           <cell r="CD483">
             <v>0</v>
@@ -1030,11 +1033,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P367"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P368"/>
   <sheetViews>
-    <sheetView topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="F367" sqref="F367"/>
+    <sheetView topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="K368" sqref="K368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -19455,6 +19458,56 @@
         <v>10</v>
       </c>
     </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A368" s="2">
+        <v>45839</v>
+      </c>
+      <c r="B368" s="1">
+        <v>0.29654590233754713</v>
+      </c>
+      <c r="C368" s="1">
+        <v>-0.95036530918049045</v>
+      </c>
+      <c r="D368" s="1">
+        <v>5.8552200526885223E-3</v>
+      </c>
+      <c r="E368" s="1">
+        <v>0.2427756230446656</v>
+      </c>
+      <c r="F368" s="1">
+        <v>7.7810288415910478E-2</v>
+      </c>
+      <c r="G368" s="1">
+        <v>-1.0042938980300185</v>
+      </c>
+      <c r="H368" s="1">
+        <v>-1.8458078235431459</v>
+      </c>
+      <c r="I368" s="1">
+        <v>-1.6415449768262409</v>
+      </c>
+      <c r="J368" s="1">
+        <v>1.7096529050639389</v>
+      </c>
+      <c r="K368" s="1">
+        <v>-0.94482619931509315</v>
+      </c>
+      <c r="L368" s="1">
+        <v>-0.40541982679802385</v>
+      </c>
+      <c r="M368" s="1">
+        <v>0</v>
+      </c>
+      <c r="N368" s="1">
+        <v>0</v>
+      </c>
+      <c r="O368" s="1">
+        <v>10</v>
+      </c>
+      <c r="P368" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19462,7 +19515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19572,11 +19625,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N367"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N368"/>
   <sheetViews>
-    <sheetView topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="F367" sqref="F367"/>
+    <sheetView topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="I368" sqref="I368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -35787,6 +35840,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A368" s="2">
+        <v>45839</v>
+      </c>
+      <c r="B368" s="4">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="C368" s="4">
+        <v>0.505</v>
+      </c>
+      <c r="D368" s="4">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="E368" s="4">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="F368" s="4">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G368" s="4">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="H368" s="4">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I368" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="J368" s="4">
+        <v>0.56225000000000003</v>
+      </c>
+      <c r="K368" s="1">
+        <v>0</v>
+      </c>
+      <c r="L368" s="1">
+        <v>0</v>
+      </c>
+      <c r="M368" s="1">
+        <v>10</v>
+      </c>
+      <c r="N368" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35795,7 +35892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -35887,17 +35984,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F367"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F368"/>
   <sheetViews>
-    <sheetView topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="B367" sqref="B367"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -35905,7 +36002,7 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -35925,7 +36022,7 @@
       <c r="A2" s="2">
         <v>34700</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="1">
         <v>0.50994743710091728</v>
       </c>
     </row>
@@ -35933,7 +36030,7 @@
       <c r="A3" s="2">
         <v>34731</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="1">
         <v>0.49044931875625164</v>
       </c>
     </row>
@@ -35941,7 +36038,7 @@
       <c r="A4" s="2">
         <v>34759</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="1">
         <v>0.45922907743516977</v>
       </c>
     </row>
@@ -35949,7 +36046,7 @@
       <c r="A5" s="2">
         <v>34790</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="1">
         <v>0.4115265804223559</v>
       </c>
     </row>
@@ -35957,7 +36054,7 @@
       <c r="A6" s="2">
         <v>34820</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="1">
         <v>0.29091103241172633</v>
       </c>
     </row>
@@ -35965,7 +36062,7 @@
       <c r="A7" s="2">
         <v>34851</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="1">
         <v>0.17326321335429037</v>
       </c>
     </row>
@@ -35973,7 +36070,7 @@
       <c r="A8" s="2">
         <v>34881</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="1">
         <v>0.30512786200446329</v>
       </c>
     </row>
@@ -35981,7 +36078,7 @@
       <c r="A9" s="2">
         <v>34912</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="1">
         <v>0.22169732649014556</v>
       </c>
     </row>
@@ -35989,7 +36086,7 @@
       <c r="A10" s="2">
         <v>34943</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="1">
         <v>0.22176600413819481</v>
       </c>
     </row>
@@ -35997,7 +36094,7 @@
       <c r="A11" s="2">
         <v>34973</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="1">
         <v>0.20890560053729534</v>
       </c>
     </row>
@@ -36005,7 +36102,7 @@
       <c r="A12" s="2">
         <v>35004</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="1">
         <v>0.17066786745365253</v>
       </c>
     </row>
@@ -36013,7 +36110,7 @@
       <c r="A13" s="2">
         <v>35034</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="1">
         <v>0.13993776603098476</v>
       </c>
     </row>
@@ -36021,7 +36118,7 @@
       <c r="A14" s="2">
         <v>35065</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="1">
         <v>0.1537700794919506</v>
       </c>
     </row>
@@ -36029,7 +36126,7 @@
       <c r="A15" s="2">
         <v>35096</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="1">
         <v>0.22159405199049917</v>
       </c>
       <c r="C15" s="1">
@@ -36049,7 +36146,7 @@
       <c r="A16" s="2">
         <v>35125</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="1">
         <v>0.22858687225771054</v>
       </c>
       <c r="C16" s="1">
@@ -36069,7 +36166,7 @@
       <c r="A17" s="2">
         <v>35156</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="1">
         <v>0.30374720725729487</v>
       </c>
       <c r="C17" s="1">
@@ -36089,7 +36186,7 @@
       <c r="A18" s="2">
         <v>35186</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="1">
         <v>0.31362166605631936</v>
       </c>
       <c r="C18" s="1">
@@ -36109,7 +36206,7 @@
       <c r="A19" s="2">
         <v>35217</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="1">
         <v>0.47295025032943833</v>
       </c>
       <c r="C19" s="1">
@@ -36129,7 +36226,7 @@
       <c r="A20" s="2">
         <v>35247</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="1">
         <v>0.41546798718453681</v>
       </c>
       <c r="C20" s="1">
@@ -36149,7 +36246,7 @@
       <c r="A21" s="2">
         <v>35278</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="1">
         <v>0.53277109676093892</v>
       </c>
       <c r="C21" s="1">
@@ -36169,7 +36266,7 @@
       <c r="A22" s="2">
         <v>35309</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="1">
         <v>0.49764159152592102</v>
       </c>
       <c r="C22" s="1">
@@ -36189,7 +36286,7 @@
       <c r="A23" s="2">
         <v>35339</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="1">
         <v>0.42708109113489384</v>
       </c>
       <c r="C23" s="1">
@@ -36209,7 +36306,7 @@
       <c r="A24" s="2">
         <v>35370</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="1">
         <v>0.44539788405397307</v>
       </c>
       <c r="C24" s="1">
@@ -36229,7 +36326,7 @@
       <c r="A25" s="2">
         <v>35400</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="1">
         <v>0.55379723624605737</v>
       </c>
       <c r="C25" s="1">
@@ -36249,7 +36346,7 @@
       <c r="A26" s="2">
         <v>35431</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="1">
         <v>0.69076597383653648</v>
       </c>
       <c r="C26" s="1">
@@ -36269,7 +36366,7 @@
       <c r="A27" s="2">
         <v>35462</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="1">
         <v>0.67274878642164915</v>
       </c>
       <c r="C27" s="1">
@@ -36289,7 +36386,7 @@
       <c r="A28" s="2">
         <v>35490</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="1">
         <v>0.72353853422756431</v>
       </c>
       <c r="C28" s="1">
@@ -36309,7 +36406,7 @@
       <c r="A29" s="2">
         <v>35521</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="1">
         <v>0.70138278670318077</v>
       </c>
       <c r="C29" s="1">
@@ -36329,7 +36426,7 @@
       <c r="A30" s="2">
         <v>35551</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="1">
         <v>0.77079772856498252</v>
       </c>
       <c r="C30" s="1">
@@ -36349,7 +36446,7 @@
       <c r="A31" s="2">
         <v>35582</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="1">
         <v>0.69145989244249928</v>
       </c>
       <c r="C31" s="1">
@@ -36369,7 +36466,7 @@
       <c r="A32" s="2">
         <v>35612</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="1">
         <v>0.73603018192010783</v>
       </c>
       <c r="C32" s="1">
@@ -36389,7 +36486,7 @@
       <c r="A33" s="2">
         <v>35643</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="1">
         <v>0.72126008182686618</v>
       </c>
       <c r="C33" s="1">
@@ -36409,7 +36506,7 @@
       <c r="A34" s="2">
         <v>35674</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="1">
         <v>0.66261531799717821</v>
       </c>
       <c r="C34" s="1">
@@ -36429,7 +36526,7 @@
       <c r="A35" s="2">
         <v>35704</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="1">
         <v>0.72407496416080908</v>
       </c>
       <c r="C35" s="1">
@@ -36449,7 +36546,7 @@
       <c r="A36" s="2">
         <v>35735</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="1">
         <v>0.69612391653818528</v>
       </c>
       <c r="C36" s="1">
@@ -36469,7 +36566,7 @@
       <c r="A37" s="2">
         <v>35765</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="1">
         <v>0.6602245250601827</v>
       </c>
       <c r="C37" s="1">
@@ -36489,7 +36586,7 @@
       <c r="A38" s="2">
         <v>35796</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="1">
         <v>0.88856036483380296</v>
       </c>
       <c r="C38" s="1">
@@ -36509,7 +36606,7 @@
       <c r="A39" s="2">
         <v>35827</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="1">
         <v>0.95794372884274959</v>
       </c>
       <c r="C39" s="1">
@@ -36529,7 +36626,7 @@
       <c r="A40" s="2">
         <v>35855</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="1">
         <v>0.93595215736745896</v>
       </c>
       <c r="C40" s="1">
@@ -36549,7 +36646,7 @@
       <c r="A41" s="2">
         <v>35886</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="1">
         <v>0.98162803460219905</v>
       </c>
       <c r="C41" s="1">
@@ -36569,7 +36666,7 @@
       <c r="A42" s="2">
         <v>35916</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="1">
         <v>0.93199799612641088</v>
       </c>
       <c r="C42" s="1">
@@ -36589,7 +36686,7 @@
       <c r="A43" s="2">
         <v>35947</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="1">
         <v>0.81928174716085778</v>
       </c>
       <c r="C43" s="1">
@@ -36609,7 +36706,7 @@
       <c r="A44" s="2">
         <v>35977</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="1">
         <v>0.76092505498367979</v>
       </c>
       <c r="C44" s="1">
@@ -36629,7 +36726,7 @@
       <c r="A45" s="2">
         <v>36008</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="1">
         <v>0.79666331225788833</v>
       </c>
       <c r="C45" s="1">
@@ -36649,7 +36746,7 @@
       <c r="A46" s="2">
         <v>36039</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="1">
         <v>0.75594513091233384</v>
       </c>
       <c r="C46" s="1">
@@ -36669,7 +36766,7 @@
       <c r="A47" s="2">
         <v>36069</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="1">
         <v>0.78596913455271111</v>
       </c>
       <c r="C47" s="1">
@@ -36689,7 +36786,7 @@
       <c r="A48" s="2">
         <v>36100</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="1">
         <v>0.79676881100644981</v>
       </c>
       <c r="C48" s="1">
@@ -36709,7 +36806,7 @@
       <c r="A49" s="2">
         <v>36130</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="1">
         <v>0.7375981696738596</v>
       </c>
       <c r="C49" s="1">
@@ -36729,7 +36826,7 @@
       <c r="A50" s="2">
         <v>36161</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="1">
         <v>0.7678553403088616</v>
       </c>
       <c r="C50" s="1">
@@ -36749,7 +36846,7 @@
       <c r="A51" s="2">
         <v>36192</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="1">
         <v>0.74762012946283696</v>
       </c>
       <c r="C51" s="1">
@@ -36769,7 +36866,7 @@
       <c r="A52" s="2">
         <v>36220</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="1">
         <v>1.0972382662361273</v>
       </c>
       <c r="C52" s="1">
@@ -36789,7 +36886,7 @@
       <c r="A53" s="2">
         <v>36251</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="1">
         <v>0.97597767565385918</v>
       </c>
       <c r="C53" s="1">
@@ -36809,7 +36906,7 @@
       <c r="A54" s="2">
         <v>36281</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="1">
         <v>0.96095853565859313</v>
       </c>
       <c r="C54" s="1">
@@ -36829,7 +36926,7 @@
       <c r="A55" s="2">
         <v>36312</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="1">
         <v>0.92868820786761452</v>
       </c>
       <c r="C55" s="1">
@@ -36849,7 +36946,7 @@
       <c r="A56" s="2">
         <v>36342</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="1">
         <v>0.57456585544023786</v>
       </c>
       <c r="C56" s="1">
@@ -36869,7 +36966,7 @@
       <c r="A57" s="2">
         <v>36373</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="1">
         <v>0.63729103804416032</v>
       </c>
       <c r="C57" s="1">
@@ -36889,7 +36986,7 @@
       <c r="A58" s="2">
         <v>36404</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="1">
         <v>0.77363233638359041</v>
       </c>
       <c r="C58" s="1">
@@ -36909,7 +37006,7 @@
       <c r="A59" s="2">
         <v>36434</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="1">
         <v>0.9368396699667223</v>
       </c>
       <c r="C59" s="1">
@@ -36929,7 +37026,7 @@
       <c r="A60" s="2">
         <v>36465</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="1">
         <v>0.9269831810587299</v>
       </c>
       <c r="C60" s="1">
@@ -36949,7 +37046,7 @@
       <c r="A61" s="2">
         <v>36495</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="1">
         <v>0.80994629531462525</v>
       </c>
       <c r="C61" s="1">
@@ -36969,7 +37066,7 @@
       <c r="A62" s="2">
         <v>36526</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="1">
         <v>1.1466125680792842</v>
       </c>
       <c r="C62" s="1">
@@ -36989,7 +37086,7 @@
       <c r="A63" s="2">
         <v>36557</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="1">
         <v>0.77280964850907163</v>
       </c>
       <c r="C63" s="1">
@@ -37009,7 +37106,7 @@
       <c r="A64" s="2">
         <v>36586</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="1">
         <v>0.80769746153599953</v>
       </c>
       <c r="C64" s="1">
@@ -37029,7 +37126,7 @@
       <c r="A65" s="2">
         <v>36617</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="1">
         <v>0.6451243796625612</v>
       </c>
       <c r="C65" s="1">
@@ -37049,7 +37146,7 @@
       <c r="A66" s="2">
         <v>36647</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="1">
         <v>0.73598725845247803</v>
       </c>
       <c r="C66" s="1">
@@ -37069,7 +37166,7 @@
       <c r="A67" s="2">
         <v>36678</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="1">
         <v>1.0195605619616988</v>
       </c>
       <c r="C67" s="1">
@@ -37089,7 +37186,7 @@
       <c r="A68" s="2">
         <v>36708</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="1">
         <v>1.195566260601983</v>
       </c>
       <c r="C68" s="1">
@@ -37109,7 +37206,7 @@
       <c r="A69" s="2">
         <v>36739</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="1">
         <v>0.93069952219248864</v>
       </c>
       <c r="C69" s="1">
@@ -37129,7 +37226,7 @@
       <c r="A70" s="2">
         <v>36770</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="1">
         <v>1.0302246521665026</v>
       </c>
       <c r="C70" s="1">
@@ -37149,7 +37246,7 @@
       <c r="A71" s="2">
         <v>36800</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="1">
         <v>0.99274041571896987</v>
       </c>
       <c r="C71" s="1">
@@ -37169,7 +37266,7 @@
       <c r="A72" s="2">
         <v>36831</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="1">
         <v>0.72342749949556029</v>
       </c>
       <c r="C72" s="1">
@@ -37189,7 +37286,7 @@
       <c r="A73" s="2">
         <v>36861</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="1">
         <v>0.47392551817837969</v>
       </c>
       <c r="C73" s="1">
@@ -37209,7 +37306,7 @@
       <c r="A74" s="2">
         <v>36892</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="1">
         <v>0.36953077166900472</v>
       </c>
       <c r="C74" s="1">
@@ -37229,7 +37326,7 @@
       <c r="A75" s="2">
         <v>36923</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="1">
         <v>0.33279404668843882</v>
       </c>
       <c r="C75" s="1">
@@ -37249,7 +37346,7 @@
       <c r="A76" s="2">
         <v>36951</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="1">
         <v>0.3976825350148932</v>
       </c>
       <c r="C76" s="1">
@@ -37269,7 +37366,7 @@
       <c r="A77" s="2">
         <v>36982</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77" s="1">
         <v>0.27897239724071349</v>
       </c>
       <c r="C77" s="1">
@@ -37289,7 +37386,7 @@
       <c r="A78" s="2">
         <v>37012</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78" s="1">
         <v>0.28640446519804286</v>
       </c>
       <c r="C78" s="1">
@@ -37309,7 +37406,7 @@
       <c r="A79" s="2">
         <v>37043</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79" s="1">
         <v>-5.5717885514864673E-2</v>
       </c>
       <c r="C79" s="1">
@@ -37329,7 +37426,7 @@
       <c r="A80" s="2">
         <v>37073</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80" s="1">
         <v>-2.9322552552677194E-2</v>
       </c>
       <c r="C80" s="1">
@@ -37349,7 +37446,7 @@
       <c r="A81" s="2">
         <v>37104</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81" s="1">
         <v>-0.10916907564696214</v>
       </c>
       <c r="C81" s="1">
@@ -37369,7 +37466,7 @@
       <c r="A82" s="2">
         <v>37135</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82" s="1">
         <v>-0.18111323719853203</v>
       </c>
       <c r="C82" s="1">
@@ -37389,7 +37486,7 @@
       <c r="A83" s="2">
         <v>37165</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83" s="1">
         <v>-0.57116235520214387</v>
       </c>
       <c r="C83" s="1">
@@ -37409,7 +37506,7 @@
       <c r="A84" s="2">
         <v>37196</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84" s="1">
         <v>-0.52855537851071821</v>
       </c>
       <c r="C84" s="1">
@@ -37429,7 +37526,7 @@
       <c r="A85" s="2">
         <v>37226</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85" s="1">
         <v>-0.450960818438294</v>
       </c>
       <c r="C85" s="1">
@@ -37449,7 +37546,7 @@
       <c r="A86" s="2">
         <v>37257</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86" s="1">
         <v>-0.47294782765328175</v>
       </c>
       <c r="C86" s="1">
@@ -37469,7 +37566,7 @@
       <c r="A87" s="2">
         <v>37288</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87" s="1">
         <v>-0.34384713195647332</v>
       </c>
       <c r="C87" s="1">
@@ -37489,7 +37586,7 @@
       <c r="A88" s="2">
         <v>37316</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88" s="1">
         <v>-0.22591537628274203</v>
       </c>
       <c r="C88" s="1">
@@ -37509,7 +37606,7 @@
       <c r="A89" s="2">
         <v>37347</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89" s="1">
         <v>-0.29321997638321495</v>
       </c>
       <c r="C89" s="1">
@@ -37529,7 +37626,7 @@
       <c r="A90" s="2">
         <v>37377</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B90" s="1">
         <v>-0.2327516856633943</v>
       </c>
       <c r="C90" s="1">
@@ -37549,7 +37646,7 @@
       <c r="A91" s="2">
         <v>37408</v>
       </c>
-      <c r="B91" s="5">
+      <c r="B91" s="1">
         <v>-0.19408987979672901</v>
       </c>
       <c r="C91" s="1">
@@ -37569,7 +37666,7 @@
       <c r="A92" s="2">
         <v>37438</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92" s="1">
         <v>-0.15480942092009797</v>
       </c>
       <c r="C92" s="1">
@@ -37589,7 +37686,7 @@
       <c r="A93" s="2">
         <v>37469</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93" s="1">
         <v>-0.29855249493335417</v>
       </c>
       <c r="C93" s="1">
@@ -37609,7 +37706,7 @@
       <c r="A94" s="2">
         <v>37500</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="1">
         <v>-0.36312608813726749</v>
       </c>
       <c r="C94" s="1">
@@ -37629,7 +37726,7 @@
       <c r="A95" s="2">
         <v>37530</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95" s="1">
         <v>-0.46408999313446025</v>
       </c>
       <c r="C95" s="1">
@@ -37649,7 +37746,7 @@
       <c r="A96" s="2">
         <v>37561</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96" s="1">
         <v>-0.44105804076433791</v>
       </c>
       <c r="C96" s="1">
@@ -37669,7 +37766,7 @@
       <c r="A97" s="2">
         <v>37591</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97" s="1">
         <v>-0.28831812631496034</v>
       </c>
       <c r="C97" s="1">
@@ -37689,7 +37786,7 @@
       <c r="A98" s="2">
         <v>37622</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98" s="1">
         <v>-0.26606520826691715</v>
       </c>
       <c r="C98" s="1">
@@ -37709,7 +37806,7 @@
       <c r="A99" s="2">
         <v>37653</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99" s="1">
         <v>-0.46922672809874938</v>
       </c>
       <c r="C99" s="1">
@@ -37729,7 +37826,7 @@
       <c r="A100" s="2">
         <v>37681</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100" s="1">
         <v>-0.63314731517834377</v>
       </c>
       <c r="C100" s="1">
@@ -37749,7 +37846,7 @@
       <c r="A101" s="2">
         <v>37712</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B101" s="1">
         <v>-0.61078528831167489</v>
       </c>
       <c r="C101" s="1">
@@ -37769,7 +37866,7 @@
       <c r="A102" s="2">
         <v>37742</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B102" s="1">
         <v>-0.66421604622829167</v>
       </c>
       <c r="C102" s="1">
@@ -37789,7 +37886,7 @@
       <c r="A103" s="2">
         <v>37773</v>
       </c>
-      <c r="B103" s="5">
+      <c r="B103" s="1">
         <v>-0.67451960687067136</v>
       </c>
       <c r="C103" s="1">
@@ -37809,7 +37906,7 @@
       <c r="A104" s="2">
         <v>37803</v>
       </c>
-      <c r="B104" s="5">
+      <c r="B104" s="1">
         <v>-0.52217142188040699</v>
       </c>
       <c r="C104" s="1">
@@ -37829,7 +37926,7 @@
       <c r="A105" s="2">
         <v>37834</v>
       </c>
-      <c r="B105" s="5">
+      <c r="B105" s="1">
         <v>-0.49754098377508649</v>
       </c>
       <c r="C105" s="1">
@@ -37849,7 +37946,7 @@
       <c r="A106" s="2">
         <v>37865</v>
       </c>
-      <c r="B106" s="5">
+      <c r="B106" s="1">
         <v>-0.69450657331277277</v>
       </c>
       <c r="C106" s="1">
@@ -37869,7 +37966,7 @@
       <c r="A107" s="2">
         <v>37895</v>
       </c>
-      <c r="B107" s="5">
+      <c r="B107" s="1">
         <v>-0.41234570040668944</v>
       </c>
       <c r="C107" s="1">
@@ -37889,7 +37986,7 @@
       <c r="A108" s="2">
         <v>37926</v>
       </c>
-      <c r="B108" s="5">
+      <c r="B108" s="1">
         <v>-0.25409384103547722</v>
       </c>
       <c r="C108" s="1">
@@ -37909,7 +38006,7 @@
       <c r="A109" s="2">
         <v>37956</v>
       </c>
-      <c r="B109" s="5">
+      <c r="B109" s="1">
         <v>-0.1708217461248048</v>
       </c>
       <c r="C109" s="1">
@@ -37929,7 +38026,7 @@
       <c r="A110" s="2">
         <v>37987</v>
       </c>
-      <c r="B110" s="5">
+      <c r="B110" s="1">
         <v>-0.11237637862661232</v>
       </c>
       <c r="C110" s="1">
@@ -37949,7 +38046,7 @@
       <c r="A111" s="2">
         <v>38018</v>
       </c>
-      <c r="B111" s="5">
+      <c r="B111" s="1">
         <v>-5.066569246565187E-2</v>
       </c>
       <c r="C111" s="1">
@@ -37969,7 +38066,7 @@
       <c r="A112" s="2">
         <v>38047</v>
       </c>
-      <c r="B112" s="5">
+      <c r="B112" s="1">
         <v>-0.15711432171080597</v>
       </c>
       <c r="C112" s="1">
@@ -37989,7 +38086,7 @@
       <c r="A113" s="2">
         <v>38078</v>
       </c>
-      <c r="B113" s="5">
+      <c r="B113" s="1">
         <v>-0.19181129872929276</v>
       </c>
       <c r="C113" s="1">
@@ -38009,7 +38106,7 @@
       <c r="A114" s="2">
         <v>38108</v>
       </c>
-      <c r="B114" s="5">
+      <c r="B114" s="1">
         <v>-0.14253791324041482</v>
       </c>
       <c r="C114" s="1">
@@ -38029,7 +38126,7 @@
       <c r="A115" s="2">
         <v>38139</v>
       </c>
-      <c r="B115" s="5">
+      <c r="B115" s="1">
         <v>-0.23553165309512997</v>
       </c>
       <c r="C115" s="1">
@@ -38049,7 +38146,7 @@
       <c r="A116" s="2">
         <v>38169</v>
       </c>
-      <c r="B116" s="5">
+      <c r="B116" s="1">
         <v>-0.20730288701917368</v>
       </c>
       <c r="C116" s="1">
@@ -38069,7 +38166,7 @@
       <c r="A117" s="2">
         <v>38200</v>
       </c>
-      <c r="B117" s="5">
+      <c r="B117" s="1">
         <v>-0.29868264297737646</v>
       </c>
       <c r="C117" s="1">
@@ -38089,7 +38186,7 @@
       <c r="A118" s="2">
         <v>38231</v>
       </c>
-      <c r="B118" s="5">
+      <c r="B118" s="1">
         <v>-0.19387580381548375</v>
       </c>
       <c r="C118" s="1">
@@ -38109,7 +38206,7 @@
       <c r="A119" s="2">
         <v>38261</v>
       </c>
-      <c r="B119" s="5">
+      <c r="B119" s="1">
         <v>-0.28826029804500947</v>
       </c>
       <c r="C119" s="1">
@@ -38129,7 +38226,7 @@
       <c r="A120" s="2">
         <v>38292</v>
       </c>
-      <c r="B120" s="5">
+      <c r="B120" s="1">
         <v>-0.25570037949945867</v>
       </c>
       <c r="C120" s="1">
@@ -38149,7 +38246,7 @@
       <c r="A121" s="2">
         <v>38322</v>
       </c>
-      <c r="B121" s="5">
+      <c r="B121" s="1">
         <v>1.7287866948824005E-3</v>
       </c>
       <c r="C121" s="1">
@@ -38169,7 +38266,7 @@
       <c r="A122" s="2">
         <v>38353</v>
       </c>
-      <c r="B122" s="5">
+      <c r="B122" s="1">
         <v>-0.11073619609686638</v>
       </c>
       <c r="C122" s="1">
@@ -38189,7 +38286,7 @@
       <c r="A123" s="2">
         <v>38384</v>
       </c>
-      <c r="B123" s="5">
+      <c r="B123" s="1">
         <v>-0.29217972888914556</v>
       </c>
       <c r="C123" s="1">
@@ -38209,7 +38306,7 @@
       <c r="A124" s="2">
         <v>38412</v>
       </c>
-      <c r="B124" s="5">
+      <c r="B124" s="1">
         <v>-0.3414749290625349</v>
       </c>
       <c r="C124" s="1">
@@ -38229,7 +38326,7 @@
       <c r="A125" s="2">
         <v>38443</v>
       </c>
-      <c r="B125" s="5">
+      <c r="B125" s="1">
         <v>-0.35915357145700372</v>
       </c>
       <c r="C125" s="1">
@@ -38249,7 +38346,7 @@
       <c r="A126" s="2">
         <v>38473</v>
       </c>
-      <c r="B126" s="5">
+      <c r="B126" s="1">
         <v>-0.40417769626605055</v>
       </c>
       <c r="C126" s="1">
@@ -38269,7 +38366,7 @@
       <c r="A127" s="2">
         <v>38504</v>
       </c>
-      <c r="B127" s="5">
+      <c r="B127" s="1">
         <v>-0.11631621968547501</v>
       </c>
       <c r="C127" s="1">
@@ -38289,7 +38386,7 @@
       <c r="A128" s="2">
         <v>38534</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B128" s="1">
         <v>-0.2250788551460387</v>
       </c>
       <c r="C128" s="1">
@@ -38309,7 +38406,7 @@
       <c r="A129" s="2">
         <v>38565</v>
       </c>
-      <c r="B129" s="5">
+      <c r="B129" s="1">
         <v>-0.20626592265128982</v>
       </c>
       <c r="C129" s="1">
@@ -38329,7 +38426,7 @@
       <c r="A130" s="2">
         <v>38596</v>
       </c>
-      <c r="B130" s="5">
+      <c r="B130" s="1">
         <v>-0.26930374200619328</v>
       </c>
       <c r="C130" s="1">
@@ -38349,7 +38446,7 @@
       <c r="A131" s="2">
         <v>38626</v>
       </c>
-      <c r="B131" s="5">
+      <c r="B131" s="1">
         <v>-0.26894439282869298</v>
       </c>
       <c r="C131" s="1">
@@ -38369,7 +38466,7 @@
       <c r="A132" s="2">
         <v>38657</v>
       </c>
-      <c r="B132" s="5">
+      <c r="B132" s="1">
         <v>-0.2768271576139848</v>
       </c>
       <c r="C132" s="1">
@@ -38389,7 +38486,7 @@
       <c r="A133" s="2">
         <v>38687</v>
       </c>
-      <c r="B133" s="5">
+      <c r="B133" s="1">
         <v>-0.1794546113357742</v>
       </c>
       <c r="C133" s="1">
@@ -38409,7 +38506,7 @@
       <c r="A134" s="2">
         <v>38718</v>
       </c>
-      <c r="B134" s="5">
+      <c r="B134" s="1">
         <v>-8.9656471974416646E-2</v>
       </c>
       <c r="C134" s="1">
@@ -38429,7 +38526,7 @@
       <c r="A135" s="2">
         <v>38749</v>
       </c>
-      <c r="B135" s="5">
+      <c r="B135" s="1">
         <v>-5.5114002313877017E-2</v>
       </c>
       <c r="C135" s="1">
@@ -38449,7 +38546,7 @@
       <c r="A136" s="2">
         <v>38777</v>
       </c>
-      <c r="B136" s="5">
+      <c r="B136" s="1">
         <v>0.34033881477865296</v>
       </c>
       <c r="C136" s="1">
@@ -38469,7 +38566,7 @@
       <c r="A137" s="2">
         <v>38808</v>
       </c>
-      <c r="B137" s="5">
+      <c r="B137" s="1">
         <v>0.25276920219164523</v>
       </c>
       <c r="C137" s="1">
@@ -38489,7 +38586,7 @@
       <c r="A138" s="2">
         <v>38838</v>
       </c>
-      <c r="B138" s="5">
+      <c r="B138" s="1">
         <v>0.33836194374815443</v>
       </c>
       <c r="C138" s="1">
@@ -38509,7 +38606,7 @@
       <c r="A139" s="2">
         <v>38869</v>
       </c>
-      <c r="B139" s="5">
+      <c r="B139" s="1">
         <v>0.25382586184691219</v>
       </c>
       <c r="C139" s="1">
@@ -38529,7 +38626,7 @@
       <c r="A140" s="2">
         <v>38899</v>
       </c>
-      <c r="B140" s="5">
+      <c r="B140" s="1">
         <v>9.8717457575616979E-2</v>
       </c>
       <c r="C140" s="1">
@@ -38549,7 +38646,7 @@
       <c r="A141" s="2">
         <v>38930</v>
       </c>
-      <c r="B141" s="5">
+      <c r="B141" s="1">
         <v>1.591846502062429E-2</v>
       </c>
       <c r="C141" s="1">
@@ -38569,7 +38666,7 @@
       <c r="A142" s="2">
         <v>38961</v>
       </c>
-      <c r="B142" s="5">
+      <c r="B142" s="1">
         <v>2.3033110814167288E-2</v>
       </c>
       <c r="C142" s="1">
@@ -38589,7 +38686,7 @@
       <c r="A143" s="2">
         <v>38991</v>
       </c>
-      <c r="B143" s="5">
+      <c r="B143" s="1">
         <v>0.2219811712786961</v>
       </c>
       <c r="C143" s="1">
@@ -38609,7 +38706,7 @@
       <c r="A144" s="2">
         <v>39022</v>
       </c>
-      <c r="B144" s="5">
+      <c r="B144" s="1">
         <v>0.26680654842805784</v>
       </c>
       <c r="C144" s="1">
@@ -38629,7 +38726,7 @@
       <c r="A145" s="2">
         <v>39052</v>
       </c>
-      <c r="B145" s="5">
+      <c r="B145" s="1">
         <v>0.22306172860816048</v>
       </c>
       <c r="C145" s="1">
@@ -38649,7 +38746,7 @@
       <c r="A146" s="2">
         <v>39083</v>
       </c>
-      <c r="B146" s="5">
+      <c r="B146" s="1">
         <v>0.20505720431022095</v>
       </c>
       <c r="C146" s="1">
@@ -38669,7 +38766,7 @@
       <c r="A147" s="2">
         <v>39114</v>
       </c>
-      <c r="B147" s="5">
+      <c r="B147" s="1">
         <v>0.15622224957914149</v>
       </c>
       <c r="C147" s="1">
@@ -38689,7 +38786,7 @@
       <c r="A148" s="2">
         <v>39142</v>
       </c>
-      <c r="B148" s="5">
+      <c r="B148" s="1">
         <v>0.19735098137774157</v>
       </c>
       <c r="C148" s="1">
@@ -38709,7 +38806,7 @@
       <c r="A149" s="2">
         <v>39173</v>
       </c>
-      <c r="B149" s="5">
+      <c r="B149" s="1">
         <v>0.31643310951207815</v>
       </c>
       <c r="C149" s="1">
@@ -38729,7 +38826,7 @@
       <c r="A150" s="2">
         <v>39203</v>
       </c>
-      <c r="B150" s="5">
+      <c r="B150" s="1">
         <v>0.54901934719864776</v>
       </c>
       <c r="C150" s="1">
@@ -38749,7 +38846,7 @@
       <c r="A151" s="2">
         <v>39234</v>
       </c>
-      <c r="B151" s="5">
+      <c r="B151" s="1">
         <v>0.26353230867858513</v>
       </c>
       <c r="C151" s="1">
@@ -38769,7 +38866,7 @@
       <c r="A152" s="2">
         <v>39264</v>
       </c>
-      <c r="B152" s="5">
+      <c r="B152" s="1">
         <v>0.46393595696080292</v>
       </c>
       <c r="C152" s="1">
@@ -38789,7 +38886,7 @@
       <c r="A153" s="2">
         <v>39295</v>
       </c>
-      <c r="B153" s="5">
+      <c r="B153" s="1">
         <v>9.0702621879181128E-2</v>
       </c>
       <c r="C153" s="1">
@@ -38809,7 +38906,7 @@
       <c r="A154" s="2">
         <v>39326</v>
       </c>
-      <c r="B154" s="5">
+      <c r="B154" s="1">
         <v>0.10104480016263584</v>
       </c>
       <c r="C154" s="1">
@@ -38829,7 +38926,7 @@
       <c r="A155" s="2">
         <v>39356</v>
       </c>
-      <c r="B155" s="5">
+      <c r="B155" s="1">
         <v>6.1434628433331008E-2</v>
       </c>
       <c r="C155" s="1">
@@ -38849,7 +38946,7 @@
       <c r="A156" s="2">
         <v>39387</v>
       </c>
-      <c r="B156" s="5">
+      <c r="B156" s="1">
         <v>2.5129057349859645E-2</v>
       </c>
       <c r="C156" s="1">
@@ -38869,7 +38966,7 @@
       <c r="A157" s="2">
         <v>39417</v>
       </c>
-      <c r="B157" s="5">
+      <c r="B157" s="1">
         <v>-8.0413225935374536E-3</v>
       </c>
       <c r="C157" s="1">
@@ -38889,7 +38986,7 @@
       <c r="A158" s="2">
         <v>39448</v>
       </c>
-      <c r="B158" s="5">
+      <c r="B158" s="1">
         <v>1.4580010121112031E-2</v>
       </c>
       <c r="C158" s="1">
@@ -38909,7 +39006,7 @@
       <c r="A159" s="2">
         <v>39479</v>
       </c>
-      <c r="B159" s="5">
+      <c r="B159" s="1">
         <v>3.6320447829770432E-2</v>
       </c>
       <c r="C159" s="1">
@@ -38929,7 +39026,7 @@
       <c r="A160" s="2">
         <v>39508</v>
       </c>
-      <c r="B160" s="5">
+      <c r="B160" s="1">
         <v>-0.30875287212553837</v>
       </c>
       <c r="C160" s="1">
@@ -38949,7 +39046,7 @@
       <c r="A161" s="2">
         <v>39539</v>
       </c>
-      <c r="B161" s="5">
+      <c r="B161" s="1">
         <v>-0.2968782340439442</v>
       </c>
       <c r="C161" s="1">
@@ -38969,7 +39066,7 @@
       <c r="A162" s="2">
         <v>39569</v>
       </c>
-      <c r="B162" s="5">
+      <c r="B162" s="1">
         <v>-0.14000565096501644</v>
       </c>
       <c r="C162" s="1">
@@ -38989,7 +39086,7 @@
       <c r="A163" s="2">
         <v>39600</v>
       </c>
-      <c r="B163" s="5">
+      <c r="B163" s="1">
         <v>-0.23245169212993505</v>
       </c>
       <c r="C163" s="1">
@@ -39009,7 +39106,7 @@
       <c r="A164" s="2">
         <v>39630</v>
       </c>
-      <c r="B164" s="5">
+      <c r="B164" s="1">
         <v>-0.26468163243514453</v>
       </c>
       <c r="C164" s="1">
@@ -39029,7 +39126,7 @@
       <c r="A165" s="2">
         <v>39661</v>
       </c>
-      <c r="B165" s="5">
+      <c r="B165" s="1">
         <v>-0.68848820869659622</v>
       </c>
       <c r="C165" s="1">
@@ -39049,7 +39146,7 @@
       <c r="A166" s="2">
         <v>39692</v>
       </c>
-      <c r="B166" s="5">
+      <c r="B166" s="1">
         <v>-0.90240525612001576</v>
       </c>
       <c r="C166" s="1">
@@ -39069,7 +39166,7 @@
       <c r="A167" s="2">
         <v>39722</v>
       </c>
-      <c r="B167" s="5">
+      <c r="B167" s="1">
         <v>-1.2420731411601842</v>
       </c>
       <c r="C167" s="1">
@@ -39089,7 +39186,7 @@
       <c r="A168" s="2">
         <v>39753</v>
       </c>
-      <c r="B168" s="5">
+      <c r="B168" s="1">
         <v>-1.5450841379874229</v>
       </c>
       <c r="C168" s="1">
@@ -39109,7 +39206,7 @@
       <c r="A169" s="2">
         <v>39783</v>
       </c>
-      <c r="B169" s="5">
+      <c r="B169" s="1">
         <v>-1.9132993374000968</v>
       </c>
       <c r="C169" s="1">
@@ -39129,7 +39226,7 @@
       <c r="A170" s="2">
         <v>39814</v>
       </c>
-      <c r="B170" s="5">
+      <c r="B170" s="1">
         <v>-1.9007375363160208</v>
       </c>
       <c r="C170" s="1">
@@ -39149,7 +39246,7 @@
       <c r="A171" s="2">
         <v>39845</v>
       </c>
-      <c r="B171" s="5">
+      <c r="B171" s="1">
         <v>-2.248860846050543</v>
       </c>
       <c r="C171" s="1">
@@ -39169,7 +39266,7 @@
       <c r="A172" s="2">
         <v>39873</v>
       </c>
-      <c r="B172" s="5">
+      <c r="B172" s="1">
         <v>-2.3188571457312421</v>
       </c>
       <c r="C172" s="1">
@@ -39189,7 +39286,7 @@
       <c r="A173" s="2">
         <v>39904</v>
       </c>
-      <c r="B173" s="5">
+      <c r="B173" s="1">
         <v>-2.2313262818254294</v>
       </c>
       <c r="C173" s="1">
@@ -39209,7 +39306,7 @@
       <c r="A174" s="2">
         <v>39934</v>
       </c>
-      <c r="B174" s="5">
+      <c r="B174" s="1">
         <v>-2.1113389814073535</v>
       </c>
       <c r="C174" s="1">
@@ -39229,7 +39326,7 @@
       <c r="A175" s="2">
         <v>39965</v>
       </c>
-      <c r="B175" s="5">
+      <c r="B175" s="1">
         <v>-2.0727996283181929</v>
       </c>
       <c r="C175" s="1">
@@ -39249,7 +39346,7 @@
       <c r="A176" s="2">
         <v>39995</v>
       </c>
-      <c r="B176" s="5">
+      <c r="B176" s="1">
         <v>-1.9171369021582971</v>
       </c>
       <c r="C176" s="1">
@@ -39269,7 +39366,7 @@
       <c r="A177" s="2">
         <v>40026</v>
       </c>
-      <c r="B177" s="5">
+      <c r="B177" s="1">
         <v>-1.7405711555599139</v>
       </c>
       <c r="C177" s="1">
@@ -39289,7 +39386,7 @@
       <c r="A178" s="2">
         <v>40057</v>
       </c>
-      <c r="B178" s="5">
+      <c r="B178" s="1">
         <v>-1.5258534047381755</v>
       </c>
       <c r="C178" s="1">
@@ -39309,7 +39406,7 @@
       <c r="A179" s="2">
         <v>40087</v>
       </c>
-      <c r="B179" s="5">
+      <c r="B179" s="1">
         <v>-1.598737677645101</v>
       </c>
       <c r="C179" s="1">
@@ -39329,7 +39426,7 @@
       <c r="A180" s="2">
         <v>40118</v>
       </c>
-      <c r="B180" s="5">
+      <c r="B180" s="1">
         <v>-1.3382412388101546</v>
       </c>
       <c r="C180" s="1">
@@ -39349,7 +39446,7 @@
       <c r="A181" s="2">
         <v>40148</v>
       </c>
-      <c r="B181" s="5">
+      <c r="B181" s="1">
         <v>-1.1959891863883612</v>
       </c>
       <c r="C181" s="1">
@@ -39369,7 +39466,7 @@
       <c r="A182" s="2">
         <v>40179</v>
       </c>
-      <c r="B182" s="5">
+      <c r="B182" s="1">
         <v>-1.0875806923675095</v>
       </c>
       <c r="C182" s="1">
@@ -39389,7 +39486,7 @@
       <c r="A183" s="2">
         <v>40210</v>
       </c>
-      <c r="B183" s="5">
+      <c r="B183" s="1">
         <v>-1.0209449495937708</v>
       </c>
       <c r="C183" s="1">
@@ -39409,7 +39506,7 @@
       <c r="A184" s="2">
         <v>40238</v>
       </c>
-      <c r="B184" s="5">
+      <c r="B184" s="1">
         <v>-0.80083333401186485</v>
       </c>
       <c r="C184" s="1">
@@ -39429,7 +39526,7 @@
       <c r="A185" s="2">
         <v>40269</v>
       </c>
-      <c r="B185" s="5">
+      <c r="B185" s="1">
         <v>-0.82632560382113884</v>
       </c>
       <c r="C185" s="1">
@@ -39449,7 +39546,7 @@
       <c r="A186" s="2">
         <v>40299</v>
       </c>
-      <c r="B186" s="5">
+      <c r="B186" s="1">
         <v>-0.85232924431602775</v>
       </c>
       <c r="C186" s="1">
@@ -39469,7 +39566,7 @@
       <c r="A187" s="2">
         <v>40330</v>
       </c>
-      <c r="B187" s="5">
+      <c r="B187" s="1">
         <v>-0.93030170347065178</v>
       </c>
       <c r="C187" s="1">
@@ -39489,7 +39586,7 @@
       <c r="A188" s="2">
         <v>40360</v>
       </c>
-      <c r="B188" s="5">
+      <c r="B188" s="1">
         <v>-0.92331262043914175</v>
       </c>
       <c r="C188" s="1">
@@ -39509,7 +39606,7 @@
       <c r="A189" s="2">
         <v>40391</v>
       </c>
-      <c r="B189" s="5">
+      <c r="B189" s="1">
         <v>-0.88704735991773698</v>
       </c>
       <c r="C189" s="1">
@@ -39529,7 +39626,7 @@
       <c r="A190" s="2">
         <v>40422</v>
       </c>
-      <c r="B190" s="5">
+      <c r="B190" s="1">
         <v>-0.85704498066223223</v>
       </c>
       <c r="C190" s="1">
@@ -39549,7 +39646,7 @@
       <c r="A191" s="2">
         <v>40452</v>
       </c>
-      <c r="B191" s="5">
+      <c r="B191" s="1">
         <v>-0.76813258922980665</v>
       </c>
       <c r="C191" s="1">
@@ -39569,7 +39666,7 @@
       <c r="A192" s="2">
         <v>40483</v>
       </c>
-      <c r="B192" s="5">
+      <c r="B192" s="1">
         <v>-0.71376024733458387</v>
       </c>
       <c r="C192" s="1">
@@ -39589,7 +39686,7 @@
       <c r="A193" s="2">
         <v>40513</v>
       </c>
-      <c r="B193" s="5">
+      <c r="B193" s="1">
         <v>-0.50339986238797996</v>
       </c>
       <c r="C193" s="1">
@@ -39609,7 +39706,7 @@
       <c r="A194" s="2">
         <v>40544</v>
       </c>
-      <c r="B194" s="5">
+      <c r="B194" s="1">
         <v>-0.25038013750312582</v>
       </c>
       <c r="C194" s="1">
@@ -39629,7 +39726,7 @@
       <c r="A195" s="2">
         <v>40575</v>
       </c>
-      <c r="B195" s="5">
+      <c r="B195" s="1">
         <v>-0.11815373672713884</v>
       </c>
       <c r="C195" s="1">
@@ -39649,7 +39746,7 @@
       <c r="A196" s="2">
         <v>40603</v>
       </c>
-      <c r="B196" s="5">
+      <c r="B196" s="1">
         <v>-0.11376254233994491</v>
       </c>
       <c r="C196" s="1">
@@ -39669,7 +39766,7 @@
       <c r="A197" s="2">
         <v>40634</v>
       </c>
-      <c r="B197" s="5">
+      <c r="B197" s="1">
         <v>-2.5044731964818996E-2</v>
       </c>
       <c r="C197" s="1">
@@ -39689,7 +39786,7 @@
       <c r="A198" s="2">
         <v>40664</v>
       </c>
-      <c r="B198" s="5">
+      <c r="B198" s="1">
         <v>-0.16892460943585733</v>
       </c>
       <c r="C198" s="1">
@@ -39709,7 +39806,7 @@
       <c r="A199" s="2">
         <v>40695</v>
       </c>
-      <c r="B199" s="5">
+      <c r="B199" s="1">
         <v>-0.14859281938222918</v>
       </c>
       <c r="C199" s="1">
@@ -39729,7 +39826,7 @@
       <c r="A200" s="2">
         <v>40725</v>
       </c>
-      <c r="B200" s="5">
+      <c r="B200" s="1">
         <v>-0.17022763361943977</v>
       </c>
       <c r="C200" s="1">
@@ -39749,7 +39846,7 @@
       <c r="A201" s="2">
         <v>40756</v>
       </c>
-      <c r="B201" s="5">
+      <c r="B201" s="1">
         <v>-0.35334545131831702</v>
       </c>
       <c r="C201" s="1">
@@ -39769,7 +39866,7 @@
       <c r="A202" s="2">
         <v>40787</v>
       </c>
-      <c r="B202" s="5">
+      <c r="B202" s="1">
         <v>-0.41831499170499747</v>
       </c>
       <c r="C202" s="1">
@@ -39789,7 +39886,7 @@
       <c r="A203" s="2">
         <v>40817</v>
       </c>
-      <c r="B203" s="5">
+      <c r="B203" s="1">
         <v>-0.42694364841152854</v>
       </c>
       <c r="C203" s="1">
@@ -39809,7 +39906,7 @@
       <c r="A204" s="2">
         <v>40848</v>
       </c>
-      <c r="B204" s="5">
+      <c r="B204" s="1">
         <v>-0.29445192140021686</v>
       </c>
       <c r="C204" s="1">
@@ -39829,7 +39926,7 @@
       <c r="A205" s="2">
         <v>40878</v>
       </c>
-      <c r="B205" s="5">
+      <c r="B205" s="1">
         <v>-0.27952202332152981</v>
       </c>
       <c r="C205" s="1">
@@ -39849,7 +39946,7 @@
       <c r="A206" s="2">
         <v>40909</v>
       </c>
-      <c r="B206" s="5">
+      <c r="B206" s="1">
         <v>-0.37292781752887361</v>
       </c>
       <c r="C206" s="1">
@@ -39869,7 +39966,7 @@
       <c r="A207" s="2">
         <v>40940</v>
       </c>
-      <c r="B207" s="5">
+      <c r="B207" s="1">
         <v>-0.3480039577304887</v>
       </c>
       <c r="C207" s="1">
@@ -39889,7 +39986,7 @@
       <c r="A208" s="2">
         <v>40969</v>
       </c>
-      <c r="B208" s="5">
+      <c r="B208" s="1">
         <v>-0.29156446527173963</v>
       </c>
       <c r="C208" s="1">
@@ -39909,7 +40006,7 @@
       <c r="A209" s="2">
         <v>41000</v>
       </c>
-      <c r="B209" s="5">
+      <c r="B209" s="1">
         <v>-0.23792622561429555</v>
       </c>
       <c r="C209" s="1">
@@ -39929,7 +40026,7 @@
       <c r="A210" s="2">
         <v>41030</v>
       </c>
-      <c r="B210" s="5">
+      <c r="B210" s="1">
         <v>-0.30979435255002807</v>
       </c>
       <c r="C210" s="1">
@@ -39949,7 +40046,7 @@
       <c r="A211" s="2">
         <v>41061</v>
       </c>
-      <c r="B211" s="5">
+      <c r="B211" s="1">
         <v>-0.42400099112373252</v>
       </c>
       <c r="C211" s="1">
@@ -39969,7 +40066,7 @@
       <c r="A212" s="2">
         <v>41091</v>
       </c>
-      <c r="B212" s="5">
+      <c r="B212" s="1">
         <v>-0.41811177623104295</v>
       </c>
       <c r="C212" s="1">
@@ -39989,7 +40086,7 @@
       <c r="A213" s="2">
         <v>41122</v>
       </c>
-      <c r="B213" s="5">
+      <c r="B213" s="1">
         <v>-0.43273476757235035</v>
       </c>
       <c r="C213" s="1">
@@ -40009,7 +40106,7 @@
       <c r="A214" s="2">
         <v>41153</v>
       </c>
-      <c r="B214" s="5">
+      <c r="B214" s="1">
         <v>-0.34696787764599707</v>
       </c>
       <c r="C214" s="1">
@@ -40029,7 +40126,7 @@
       <c r="A215" s="2">
         <v>41183</v>
       </c>
-      <c r="B215" s="5">
+      <c r="B215" s="1">
         <v>-1.437600514554362E-2</v>
       </c>
       <c r="C215" s="1">
@@ -40049,7 +40146,7 @@
       <c r="A216" s="2">
         <v>41214</v>
       </c>
-      <c r="B216" s="5">
+      <c r="B216" s="1">
         <v>-0.23523720335250925</v>
       </c>
       <c r="C216" s="1">
@@ -40069,7 +40166,7 @@
       <c r="A217" s="2">
         <v>41244</v>
       </c>
-      <c r="B217" s="5">
+      <c r="B217" s="1">
         <v>-5.3339703839635953E-2</v>
       </c>
       <c r="C217" s="1">
@@ -40089,7 +40186,7 @@
       <c r="A218" s="2">
         <v>41275</v>
       </c>
-      <c r="B218" s="5">
+      <c r="B218" s="1">
         <v>-0.14637608400860064</v>
       </c>
       <c r="C218" s="1">
@@ -40109,7 +40206,7 @@
       <c r="A219" s="2">
         <v>41306</v>
       </c>
-      <c r="B219" s="5">
+      <c r="B219" s="1">
         <v>-7.5144483933758083E-2</v>
       </c>
       <c r="C219" s="1">
@@ -40129,7 +40226,7 @@
       <c r="A220" s="2">
         <v>41334</v>
       </c>
-      <c r="B220" s="5">
+      <c r="B220" s="1">
         <v>-0.25579092710349455</v>
       </c>
       <c r="C220" s="1">
@@ -40149,7 +40246,7 @@
       <c r="A221" s="2">
         <v>41365</v>
       </c>
-      <c r="B221" s="5">
+      <c r="B221" s="1">
         <v>-0.2224991883134495</v>
       </c>
       <c r="C221" s="1">
@@ -40169,7 +40266,7 @@
       <c r="A222" s="2">
         <v>41395</v>
       </c>
-      <c r="B222" s="5">
+      <c r="B222" s="1">
         <v>-0.1619127288351728</v>
       </c>
       <c r="C222" s="1">
@@ -40189,7 +40286,7 @@
       <c r="A223" s="2">
         <v>41426</v>
       </c>
-      <c r="B223" s="5">
+      <c r="B223" s="1">
         <v>-0.14970031778249351</v>
       </c>
       <c r="C223" s="1">
@@ -40209,7 +40306,7 @@
       <c r="A224" s="2">
         <v>41456</v>
       </c>
-      <c r="B224" s="5">
+      <c r="B224" s="1">
         <v>6.4659326147538596E-2</v>
       </c>
       <c r="C224" s="1">
@@ -40229,7 +40326,7 @@
       <c r="A225" s="2">
         <v>41487</v>
       </c>
-      <c r="B225" s="5">
+      <c r="B225" s="1">
         <v>5.2026740179508271E-2</v>
       </c>
       <c r="C225" s="1">
@@ -40249,7 +40346,7 @@
       <c r="A226" s="2">
         <v>41518</v>
       </c>
-      <c r="B226" s="5">
+      <c r="B226" s="1">
         <v>0.37806192040685377</v>
       </c>
       <c r="C226" s="1">
@@ -40269,7 +40366,7 @@
       <c r="A227" s="2">
         <v>41548</v>
       </c>
-      <c r="B227" s="5">
+      <c r="B227" s="1">
         <v>9.0341891904003963E-2</v>
       </c>
       <c r="C227" s="1">
@@ -40289,7 +40386,7 @@
       <c r="A228" s="2">
         <v>41579</v>
       </c>
-      <c r="B228" s="5">
+      <c r="B228" s="1">
         <v>6.4206894931250869E-2</v>
       </c>
       <c r="C228" s="1">
@@ -40309,7 +40406,7 @@
       <c r="A229" s="2">
         <v>41609</v>
       </c>
-      <c r="B229" s="5">
+      <c r="B229" s="1">
         <v>0.12153961835473237</v>
       </c>
       <c r="C229" s="1">
@@ -40329,7 +40426,7 @@
       <c r="A230" s="2">
         <v>41640</v>
       </c>
-      <c r="B230" s="5">
+      <c r="B230" s="1">
         <v>3.6801036476640556E-2</v>
       </c>
       <c r="C230" s="1">
@@ -40349,7 +40446,7 @@
       <c r="A231" s="2">
         <v>41671</v>
       </c>
-      <c r="B231" s="5">
+      <c r="B231" s="1">
         <v>0.24356022419671838</v>
       </c>
       <c r="C231" s="1">
@@ -40369,7 +40466,7 @@
       <c r="A232" s="2">
         <v>41699</v>
       </c>
-      <c r="B232" s="5">
+      <c r="B232" s="1">
         <v>0.14723564588323762</v>
       </c>
       <c r="C232" s="1">
@@ -40389,7 +40486,7 @@
       <c r="A233" s="2">
         <v>41730</v>
       </c>
-      <c r="B233" s="5">
+      <c r="B233" s="1">
         <v>0.40077789893667493</v>
       </c>
       <c r="C233" s="1">
@@ -40409,7 +40506,7 @@
       <c r="A234" s="2">
         <v>41760</v>
       </c>
-      <c r="B234" s="5">
+      <c r="B234" s="1">
         <v>0.47106962594720037</v>
       </c>
       <c r="C234" s="1">
@@ -40429,7 +40526,7 @@
       <c r="A235" s="2">
         <v>41791</v>
       </c>
-      <c r="B235" s="5">
+      <c r="B235" s="1">
         <v>0.51304209003994916</v>
       </c>
       <c r="C235" s="1">
@@ -40449,7 +40546,7 @@
       <c r="A236" s="2">
         <v>41821</v>
       </c>
-      <c r="B236" s="5">
+      <c r="B236" s="1">
         <v>0.6080546509142849</v>
       </c>
       <c r="C236" s="1">
@@ -40469,7 +40566,7 @@
       <c r="A237" s="2">
         <v>41852</v>
       </c>
-      <c r="B237" s="5">
+      <c r="B237" s="1">
         <v>0.62136666800883622</v>
       </c>
       <c r="C237" s="1">
@@ -40489,7 +40586,7 @@
       <c r="A238" s="2">
         <v>41883</v>
       </c>
-      <c r="B238" s="5">
+      <c r="B238" s="1">
         <v>0.51978258593741766</v>
       </c>
       <c r="C238" s="1">
@@ -40509,7 +40606,7 @@
       <c r="A239" s="2">
         <v>41913</v>
       </c>
-      <c r="B239" s="5">
+      <c r="B239" s="1">
         <v>0.59257373262823543</v>
       </c>
       <c r="C239" s="1">
@@ -40529,7 +40626,7 @@
       <c r="A240" s="2">
         <v>41944</v>
       </c>
-      <c r="B240" s="5">
+      <c r="B240" s="1">
         <v>0.6084681156589713</v>
       </c>
       <c r="C240" s="1">
@@ -40549,7 +40646,7 @@
       <c r="A241" s="2">
         <v>41974</v>
       </c>
-      <c r="B241" s="5">
+      <c r="B241" s="1">
         <v>0.42924430423795756</v>
       </c>
       <c r="C241" s="1">
@@ -40569,7 +40666,7 @@
       <c r="A242" s="2">
         <v>42005</v>
       </c>
-      <c r="B242" s="5">
+      <c r="B242" s="1">
         <v>0.34804063551349851</v>
       </c>
       <c r="C242" s="1">
@@ -40589,7 +40686,7 @@
       <c r="A243" s="2">
         <v>42036</v>
       </c>
-      <c r="B243" s="5">
+      <c r="B243" s="1">
         <v>0.39379987381384068</v>
       </c>
       <c r="C243" s="1">
@@ -40609,7 +40706,7 @@
       <c r="A244" s="2">
         <v>42064</v>
       </c>
-      <c r="B244" s="5">
+      <c r="B244" s="1">
         <v>0.62976097378872942</v>
       </c>
       <c r="C244" s="1">
@@ -40629,7 +40726,7 @@
       <c r="A245" s="2">
         <v>42095</v>
       </c>
-      <c r="B245" s="5">
+      <c r="B245" s="1">
         <v>0.41778512382989003</v>
       </c>
       <c r="C245" s="1">
@@ -40649,7 +40746,7 @@
       <c r="A246" s="2">
         <v>42125</v>
       </c>
-      <c r="B246" s="5">
+      <c r="B246" s="1">
         <v>0.62545793490399837</v>
       </c>
       <c r="C246" s="1">
@@ -40669,7 +40766,7 @@
       <c r="A247" s="2">
         <v>42156</v>
       </c>
-      <c r="B247" s="5">
+      <c r="B247" s="1">
         <v>0.53701438798925705</v>
       </c>
       <c r="C247" s="1">
@@ -40689,7 +40786,7 @@
       <c r="A248" s="2">
         <v>42186</v>
       </c>
-      <c r="B248" s="5">
+      <c r="B248" s="1">
         <v>0.79206590944570077</v>
       </c>
       <c r="C248" s="1">
@@ -40709,7 +40806,7 @@
       <c r="A249" s="2">
         <v>42217</v>
       </c>
-      <c r="B249" s="5">
+      <c r="B249" s="1">
         <v>0.5284731172343915</v>
       </c>
       <c r="C249" s="1">
@@ -40729,7 +40826,7 @@
       <c r="A250" s="2">
         <v>42248</v>
       </c>
-      <c r="B250" s="5">
+      <c r="B250" s="1">
         <v>0.52106088510726711</v>
       </c>
       <c r="C250" s="1">
@@ -40749,7 +40846,7 @@
       <c r="A251" s="2">
         <v>42278</v>
       </c>
-      <c r="B251" s="5">
+      <c r="B251" s="1">
         <v>0.53904897521837225</v>
       </c>
       <c r="C251" s="1">
@@ -40769,7 +40866,7 @@
       <c r="A252" s="2">
         <v>42309</v>
       </c>
-      <c r="B252" s="5">
+      <c r="B252" s="1">
         <v>0.73528838874154323</v>
       </c>
       <c r="C252" s="1">
@@ -40789,7 +40886,7 @@
       <c r="A253" s="2">
         <v>42339</v>
       </c>
-      <c r="B253" s="5">
+      <c r="B253" s="1">
         <v>0.33612565535099581</v>
       </c>
       <c r="C253" s="1">
@@ -40809,7 +40906,7 @@
       <c r="A254" s="2">
         <v>42370</v>
       </c>
-      <c r="B254" s="5">
+      <c r="B254" s="1">
         <v>0.20438817407743351</v>
       </c>
       <c r="C254" s="1">
@@ -40829,7 +40926,7 @@
       <c r="A255" s="2">
         <v>42401</v>
       </c>
-      <c r="B255" s="5">
+      <c r="B255" s="1">
         <v>0.10626738426271079</v>
       </c>
       <c r="C255" s="1">
@@ -40849,7 +40946,7 @@
       <c r="A256" s="2">
         <v>42430</v>
       </c>
-      <c r="B256" s="5">
+      <c r="B256" s="1">
         <v>0.15841612114138898</v>
       </c>
       <c r="C256" s="1">
@@ -40869,7 +40966,7 @@
       <c r="A257" s="2">
         <v>42461</v>
       </c>
-      <c r="B257" s="5">
+      <c r="B257" s="1">
         <v>0.18818444757119401</v>
       </c>
       <c r="C257" s="1">
@@ -40889,7 +40986,7 @@
       <c r="A258" s="2">
         <v>42491</v>
       </c>
-      <c r="B258" s="5">
+      <c r="B258" s="1">
         <v>0.28338888701951298</v>
       </c>
       <c r="C258" s="1">
@@ -40909,7 +41006,7 @@
       <c r="A259" s="2">
         <v>42522</v>
       </c>
-      <c r="B259" s="5">
+      <c r="B259" s="1">
         <v>0.26540753291746993</v>
       </c>
       <c r="C259" s="1">
@@ -40929,7 +41026,7 @@
       <c r="A260" s="2">
         <v>42552</v>
       </c>
-      <c r="B260" s="5">
+      <c r="B260" s="1">
         <v>0.21727855394871692</v>
       </c>
       <c r="C260" s="1">
@@ -40949,7 +41046,7 @@
       <c r="A261" s="2">
         <v>42583</v>
       </c>
-      <c r="B261" s="5">
+      <c r="B261" s="1">
         <v>0.18358042628810028</v>
       </c>
       <c r="C261" s="1">
@@ -40969,7 +41066,7 @@
       <c r="A262" s="2">
         <v>42614</v>
       </c>
-      <c r="B262" s="5">
+      <c r="B262" s="1">
         <v>0.26471459815479381</v>
       </c>
       <c r="C262" s="1">
@@ -40989,7 +41086,7 @@
       <c r="A263" s="2">
         <v>42644</v>
       </c>
-      <c r="B263" s="5">
+      <c r="B263" s="1">
         <v>0.6052203996989578</v>
       </c>
       <c r="C263" s="1">
@@ -41009,7 +41106,7 @@
       <c r="A264" s="2">
         <v>42675</v>
       </c>
-      <c r="B264" s="5">
+      <c r="B264" s="1">
         <v>0.42116442985873909</v>
       </c>
       <c r="C264" s="1">
@@ -41029,7 +41126,7 @@
       <c r="A265" s="2">
         <v>42705</v>
       </c>
-      <c r="B265" s="5">
+      <c r="B265" s="1">
         <v>0.50531208491072144</v>
       </c>
       <c r="C265" s="1">
@@ -41049,7 +41146,7 @@
       <c r="A266" s="2">
         <v>42736</v>
       </c>
-      <c r="B266" s="5">
+      <c r="B266" s="1">
         <v>0.65377851532555176</v>
       </c>
       <c r="C266" s="1">
@@ -41069,7 +41166,7 @@
       <c r="A267" s="2">
         <v>42767</v>
       </c>
-      <c r="B267" s="5">
+      <c r="B267" s="1">
         <v>0.64543312470844993</v>
       </c>
       <c r="C267" s="1">
@@ -41089,7 +41186,7 @@
       <c r="A268" s="2">
         <v>42795</v>
       </c>
-      <c r="B268" s="5">
+      <c r="B268" s="1">
         <v>0.79295256807658587</v>
       </c>
       <c r="C268" s="1">
@@ -41109,7 +41206,7 @@
       <c r="A269" s="2">
         <v>42826</v>
       </c>
-      <c r="B269" s="5">
+      <c r="B269" s="1">
         <v>0.55394032646187508</v>
       </c>
       <c r="C269" s="1">
@@ -41129,7 +41226,7 @@
       <c r="A270" s="2">
         <v>42856</v>
       </c>
-      <c r="B270" s="5">
+      <c r="B270" s="1">
         <v>0.50726366610213636</v>
       </c>
       <c r="C270" s="1">
@@ -41149,7 +41246,7 @@
       <c r="A271" s="2">
         <v>42887</v>
       </c>
-      <c r="B271" s="5">
+      <c r="B271" s="1">
         <v>0.57222186060058511</v>
       </c>
       <c r="C271" s="1">
@@ -41169,7 +41266,7 @@
       <c r="A272" s="2">
         <v>42917</v>
       </c>
-      <c r="B272" s="5">
+      <c r="B272" s="1">
         <v>0.5153335804251391</v>
       </c>
       <c r="C272" s="1">
@@ -41189,7 +41286,7 @@
       <c r="A273" s="2">
         <v>42948</v>
       </c>
-      <c r="B273" s="5">
+      <c r="B273" s="1">
         <v>0.53001771795650976</v>
       </c>
       <c r="C273" s="1">
@@ -41209,7 +41306,7 @@
       <c r="A274" s="2">
         <v>42979</v>
       </c>
-      <c r="B274" s="5">
+      <c r="B274" s="1">
         <v>0.57908107718069612</v>
       </c>
       <c r="C274" s="1">
@@ -41229,7 +41326,7 @@
       <c r="A275" s="2">
         <v>43009</v>
       </c>
-      <c r="B275" s="5">
+      <c r="B275" s="1">
         <v>0.52774260088008929</v>
       </c>
       <c r="C275" s="1">
@@ -41249,7 +41346,7 @@
       <c r="A276" s="2">
         <v>43040</v>
       </c>
-      <c r="B276" s="5">
+      <c r="B276" s="1">
         <v>0.62536467674232787</v>
       </c>
       <c r="C276" s="1">
@@ -41269,7 +41366,7 @@
       <c r="A277" s="2">
         <v>43070</v>
       </c>
-      <c r="B277" s="5">
+      <c r="B277" s="1">
         <v>0.62462107596240157</v>
       </c>
       <c r="C277" s="1">
@@ -41289,7 +41386,7 @@
       <c r="A278" s="2">
         <v>43101</v>
       </c>
-      <c r="B278" s="5">
+      <c r="B278" s="1">
         <v>0.59520700570873342</v>
       </c>
       <c r="C278" s="1">
@@ -41309,7 +41406,7 @@
       <c r="A279" s="2">
         <v>43132</v>
       </c>
-      <c r="B279" s="5">
+      <c r="B279" s="1">
         <v>0.57019194790283456</v>
       </c>
       <c r="C279" s="1">
@@ -41329,7 +41426,7 @@
       <c r="A280" s="2">
         <v>43160</v>
       </c>
-      <c r="B280" s="5">
+      <c r="B280" s="1">
         <v>0.74842223394352403</v>
       </c>
       <c r="C280" s="1">
@@ -41349,7 +41446,7 @@
       <c r="A281" s="2">
         <v>43191</v>
       </c>
-      <c r="B281" s="5">
+      <c r="B281" s="1">
         <v>0.65004847526572818</v>
       </c>
       <c r="C281" s="1">
@@ -41369,7 +41466,7 @@
       <c r="A282" s="2">
         <v>43221</v>
       </c>
-      <c r="B282" s="5">
+      <c r="B282" s="1">
         <v>0.80624757908643441</v>
       </c>
       <c r="C282" s="1">
@@ -41389,7 +41486,7 @@
       <c r="A283" s="2">
         <v>43252</v>
       </c>
-      <c r="B283" s="5">
+      <c r="B283" s="1">
         <v>0.62876433152529854</v>
       </c>
       <c r="C283" s="1">
@@ -41409,7 +41506,7 @@
       <c r="A284" s="2">
         <v>43282</v>
       </c>
-      <c r="B284" s="5">
+      <c r="B284" s="1">
         <v>0.60298308875846585</v>
       </c>
       <c r="C284" s="1">
@@ -41429,7 +41526,7 @@
       <c r="A285" s="2">
         <v>43313</v>
       </c>
-      <c r="B285" s="5">
+      <c r="B285" s="1">
         <v>0.73945751469022014</v>
       </c>
       <c r="C285" s="1">
@@ -41449,7 +41546,7 @@
       <c r="A286" s="2">
         <v>43344</v>
       </c>
-      <c r="B286" s="5">
+      <c r="B286" s="1">
         <v>0.62956948074137054</v>
       </c>
       <c r="C286" s="1">
@@ -41469,7 +41566,7 @@
       <c r="A287" s="2">
         <v>43374</v>
       </c>
-      <c r="B287" s="5">
+      <c r="B287" s="1">
         <v>0.58551464233367745</v>
       </c>
       <c r="C287" s="1">
@@ -41489,7 +41586,7 @@
       <c r="A288" s="2">
         <v>43405</v>
       </c>
-      <c r="B288" s="5">
+      <c r="B288" s="1">
         <v>0.57977749337977413</v>
       </c>
       <c r="C288" s="1">
@@ -41509,7 +41606,7 @@
       <c r="A289" s="2">
         <v>43435</v>
       </c>
-      <c r="B289" s="5">
+      <c r="B289" s="1">
         <v>0.35672129511313361</v>
       </c>
       <c r="C289" s="1">
@@ -41529,7 +41626,7 @@
       <c r="A290" s="2">
         <v>43466</v>
       </c>
-      <c r="B290" s="5">
+      <c r="B290" s="1">
         <v>0.43730521032050884</v>
       </c>
       <c r="C290" s="1">
@@ -41549,7 +41646,7 @@
       <c r="A291" s="2">
         <v>43497</v>
       </c>
-      <c r="B291" s="5">
+      <c r="B291" s="1">
         <v>0.37475469735948697</v>
       </c>
       <c r="C291" s="1">
@@ -41569,7 +41666,7 @@
       <c r="A292" s="2">
         <v>43525</v>
       </c>
-      <c r="B292" s="5">
+      <c r="B292" s="1">
         <v>0.38869305277881555</v>
       </c>
       <c r="C292" s="1">
@@ -41589,7 +41686,7 @@
       <c r="A293" s="2">
         <v>43556</v>
       </c>
-      <c r="B293" s="5">
+      <c r="B293" s="1">
         <v>0.35560201429815186</v>
       </c>
       <c r="C293" s="1">
@@ -41609,7 +41706,7 @@
       <c r="A294" s="2">
         <v>43586</v>
       </c>
-      <c r="B294" s="5">
+      <c r="B294" s="1">
         <v>0.35537188295900635</v>
       </c>
       <c r="C294" s="1">
@@ -41629,7 +41726,7 @@
       <c r="A295" s="2">
         <v>43617</v>
       </c>
-      <c r="B295" s="5">
+      <c r="B295" s="1">
         <v>0.38009359007104876</v>
       </c>
       <c r="C295" s="1">
@@ -41649,7 +41746,7 @@
       <c r="A296" s="2">
         <v>43647</v>
       </c>
-      <c r="B296" s="5">
+      <c r="B296" s="1">
         <v>0.20406151383823498</v>
       </c>
       <c r="C296" s="1">
@@ -41669,7 +41766,7 @@
       <c r="A297" s="2">
         <v>43678</v>
       </c>
-      <c r="B297" s="5">
+      <c r="B297" s="1">
         <v>0.12889295023995215</v>
       </c>
       <c r="C297" s="1">
@@ -41689,7 +41786,7 @@
       <c r="A298" s="2">
         <v>43709</v>
       </c>
-      <c r="B298" s="5">
+      <c r="B298" s="1">
         <v>-9.833782819722936E-2</v>
       </c>
       <c r="C298" s="1">
@@ -41709,7 +41806,7 @@
       <c r="A299" s="2">
         <v>43739</v>
       </c>
-      <c r="B299" s="5">
+      <c r="B299" s="1">
         <v>-9.5491061253182748E-3</v>
       </c>
       <c r="C299" s="1">
@@ -41729,7 +41826,7 @@
       <c r="A300" s="2">
         <v>43770</v>
       </c>
-      <c r="B300" s="5">
+      <c r="B300" s="1">
         <v>-2.3279137929779047E-2</v>
       </c>
       <c r="C300" s="1">
@@ -41749,7 +41846,7 @@
       <c r="A301" s="2">
         <v>43800</v>
       </c>
-      <c r="B301" s="5">
+      <c r="B301" s="1">
         <v>-0.10495643162680508</v>
       </c>
       <c r="C301" s="1">
@@ -41769,7 +41866,7 @@
       <c r="A302" s="2">
         <v>43831</v>
       </c>
-      <c r="B302" s="5">
+      <c r="B302" s="1">
         <v>1.5837499462182471E-2</v>
       </c>
       <c r="C302" s="1">
@@ -41789,7 +41886,7 @@
       <c r="A303" s="2">
         <v>43862</v>
       </c>
-      <c r="B303" s="5">
+      <c r="B303" s="1">
         <v>4.2592138938400085E-3</v>
       </c>
       <c r="C303" s="1">
@@ -41809,7 +41906,7 @@
       <c r="A304" s="2">
         <v>43891</v>
       </c>
-      <c r="B304" s="5">
+      <c r="B304" s="1">
         <v>-0.40555234956886188</v>
       </c>
       <c r="C304" s="1">
@@ -41829,7 +41926,7 @@
       <c r="A305" s="2">
         <v>43922</v>
       </c>
-      <c r="B305" s="5">
+      <c r="B305" s="1">
         <v>-3.3530210685204258</v>
       </c>
       <c r="C305" s="1">
@@ -41849,7 +41946,7 @@
       <c r="A306" s="2">
         <v>43952</v>
       </c>
-      <c r="B306" s="5">
+      <c r="B306" s="1">
         <v>-2.4165290809839104</v>
       </c>
       <c r="C306" s="1">
@@ -41869,7 +41966,7 @@
       <c r="A307" s="2">
         <v>43983</v>
       </c>
-      <c r="B307" s="5">
+      <c r="B307" s="1">
         <v>-1.0618570527653</v>
       </c>
       <c r="C307" s="1">
@@ -41889,7 +41986,7 @@
       <c r="A308" s="2">
         <v>44013</v>
       </c>
-      <c r="B308" s="5">
+      <c r="B308" s="1">
         <v>-0.55253834761556442</v>
       </c>
       <c r="C308" s="1">
@@ -41909,7 +42006,7 @@
       <c r="A309" s="2">
         <v>44044</v>
       </c>
-      <c r="B309" s="5">
+      <c r="B309" s="1">
         <v>-0.36215685645230822</v>
       </c>
       <c r="C309" s="1">
@@ -41929,7 +42026,7 @@
       <c r="A310" s="2">
         <v>44075</v>
       </c>
-      <c r="B310" s="5">
+      <c r="B310" s="1">
         <v>-0.27838610505430622</v>
       </c>
       <c r="C310" s="1">
@@ -41949,7 +42046,7 @@
       <c r="A311" s="2">
         <v>44105</v>
       </c>
-      <c r="B311" s="5">
+      <c r="B311" s="1">
         <v>1.1509267017178448E-2</v>
       </c>
       <c r="C311" s="1">
@@ -41969,7 +42066,7 @@
       <c r="A312" s="2">
         <v>44136</v>
       </c>
-      <c r="B312" s="5">
+      <c r="B312" s="1">
         <v>-0.20458783996146729</v>
       </c>
       <c r="C312" s="1">
@@ -41989,7 +42086,7 @@
       <c r="A313" s="2">
         <v>44166</v>
       </c>
-      <c r="B313" s="5">
+      <c r="B313" s="1">
         <v>-3.0653036507161873E-2</v>
       </c>
       <c r="C313" s="1">
@@ -42009,7 +42106,7 @@
       <c r="A314" s="2">
         <v>44197</v>
       </c>
-      <c r="B314" s="5">
+      <c r="B314" s="1">
         <v>-4.2494838840152552E-2</v>
       </c>
       <c r="C314" s="1">
@@ -42029,7 +42126,7 @@
       <c r="A315" s="2">
         <v>44228</v>
       </c>
-      <c r="B315" s="5">
+      <c r="B315" s="1">
         <v>0.12469401841182488</v>
       </c>
       <c r="C315" s="1">
@@ -42049,7 +42146,7 @@
       <c r="A316" s="2">
         <v>44256</v>
       </c>
-      <c r="B316" s="5">
+      <c r="B316" s="1">
         <v>0.87567080143580822</v>
       </c>
       <c r="C316" s="1">
@@ -42069,7 +42166,7 @@
       <c r="A317" s="2">
         <v>44287</v>
       </c>
-      <c r="B317" s="5">
+      <c r="B317" s="1">
         <v>0.70087921188794544</v>
       </c>
       <c r="C317" s="1">
@@ -42089,7 +42186,7 @@
       <c r="A318" s="2">
         <v>44317</v>
       </c>
-      <c r="B318" s="5">
+      <c r="B318" s="1">
         <v>0.69107808477944599</v>
       </c>
       <c r="C318" s="1">
@@ -42109,7 +42206,7 @@
       <c r="A319" s="2">
         <v>44348</v>
       </c>
-      <c r="B319" s="5">
+      <c r="B319" s="1">
         <v>0.39184609923151331</v>
       </c>
       <c r="C319" s="1">
@@ -42129,7 +42226,7 @@
       <c r="A320" s="2">
         <v>44378</v>
       </c>
-      <c r="B320" s="5">
+      <c r="B320" s="1">
         <v>0.51060462193022849</v>
       </c>
       <c r="C320" s="1">
@@ -42149,7 +42246,7 @@
       <c r="A321" s="2">
         <v>44409</v>
       </c>
-      <c r="B321" s="5">
+      <c r="B321" s="1">
         <v>0.59602423622414147</v>
       </c>
       <c r="C321" s="1">
@@ -42169,7 +42266,7 @@
       <c r="A322" s="2">
         <v>44440</v>
       </c>
-      <c r="B322" s="5">
+      <c r="B322" s="1">
         <v>0.70384450056580605</v>
       </c>
       <c r="C322" s="1">
@@ -42189,7 +42286,7 @@
       <c r="A323" s="2">
         <v>44470</v>
       </c>
-      <c r="B323" s="5">
+      <c r="B323" s="1">
         <v>0.77538853313253642</v>
       </c>
       <c r="C323" s="1">
@@ -42209,7 +42306,7 @@
       <c r="A324" s="2">
         <v>44501</v>
       </c>
-      <c r="B324" s="5">
+      <c r="B324" s="1">
         <v>0.87050919913020497</v>
       </c>
       <c r="C324" s="1">
@@ -42229,7 +42326,7 @@
       <c r="A325" s="2">
         <v>44531</v>
       </c>
-      <c r="B325" s="5">
+      <c r="B325" s="1">
         <v>0.88949693823166487</v>
       </c>
       <c r="C325" s="1">
@@ -42249,7 +42346,7 @@
       <c r="A326" s="2">
         <v>44562</v>
       </c>
-      <c r="B326" s="5">
+      <c r="B326" s="1">
         <v>0.67060730625978737</v>
       </c>
       <c r="C326" s="1">
@@ -42269,7 +42366,7 @@
       <c r="A327" s="2">
         <v>44593</v>
       </c>
-      <c r="B327" s="5">
+      <c r="B327" s="1">
         <v>0.66142038516054169</v>
       </c>
       <c r="C327" s="1">
@@ -42289,7 +42386,7 @@
       <c r="A328" s="2">
         <v>44621</v>
       </c>
-      <c r="B328" s="5">
+      <c r="B328" s="1">
         <v>0.27748188755005787</v>
       </c>
       <c r="C328" s="1">
@@ -42309,7 +42406,7 @@
       <c r="A329" s="2">
         <v>44652</v>
       </c>
-      <c r="B329" s="5">
+      <c r="B329" s="1">
         <v>0.45515412281642142</v>
       </c>
       <c r="C329" s="1">
@@ -42329,7 +42426,7 @@
       <c r="A330" s="2">
         <v>44682</v>
       </c>
-      <c r="B330" s="5">
+      <c r="B330" s="1">
         <v>0.4489492079532772</v>
       </c>
       <c r="C330" s="1">
@@ -42349,7 +42446,7 @@
       <c r="A331" s="2">
         <v>44713</v>
       </c>
-      <c r="B331" s="5">
+      <c r="B331" s="1">
         <v>0.36767154269454244</v>
       </c>
       <c r="C331" s="1">
@@ -42369,7 +42466,7 @@
       <c r="A332" s="2">
         <v>44743</v>
       </c>
-      <c r="B332" s="5">
+      <c r="B332" s="1">
         <v>0.26680660749269358</v>
       </c>
       <c r="C332" s="1">
@@ -42389,7 +42486,7 @@
       <c r="A333" s="2">
         <v>44774</v>
       </c>
-      <c r="B333" s="5">
+      <c r="B333" s="1">
         <v>0.33386069071843322</v>
       </c>
       <c r="C333" s="1">
@@ -42409,7 +42506,7 @@
       <c r="A334" s="2">
         <v>44805</v>
       </c>
-      <c r="B334" s="5">
+      <c r="B334" s="1">
         <v>0.27042969973834258</v>
       </c>
       <c r="C334" s="1">
@@ -42429,7 +42526,7 @@
       <c r="A335" s="2">
         <v>44835</v>
       </c>
-      <c r="B335" s="5">
+      <c r="B335" s="1">
         <v>0.23893448994640232</v>
       </c>
       <c r="C335" s="1">
@@ -42449,7 +42546,7 @@
       <c r="A336" s="2">
         <v>44866</v>
       </c>
-      <c r="B336" s="5">
+      <c r="B336" s="1">
         <v>0.17763032931691067</v>
       </c>
       <c r="C336" s="1">
@@ -42469,7 +42566,7 @@
       <c r="A337" s="2">
         <v>44896</v>
       </c>
-      <c r="B337" s="5">
+      <c r="B337" s="1">
         <v>0.21426205038580831</v>
       </c>
       <c r="C337" s="1">
@@ -42489,7 +42586,7 @@
       <c r="A338" s="2">
         <v>44927</v>
       </c>
-      <c r="B338" s="5">
+      <c r="B338" s="1">
         <v>0.13205350814385289</v>
       </c>
       <c r="C338" s="1">
@@ -42509,7 +42606,7 @@
       <c r="A339" s="2">
         <v>44958</v>
       </c>
-      <c r="B339" s="5">
+      <c r="B339" s="1">
         <v>8.4492251879849101E-2</v>
       </c>
       <c r="C339" s="1">
@@ -42529,7 +42626,7 @@
       <c r="A340" s="2">
         <v>44986</v>
       </c>
-      <c r="B340" s="5">
+      <c r="B340" s="1">
         <v>7.2827170590997845E-2</v>
       </c>
       <c r="C340" s="1">
@@ -42549,7 +42646,7 @@
       <c r="A341" s="2">
         <v>45017</v>
       </c>
-      <c r="B341" s="5">
+      <c r="B341" s="1">
         <v>-0.12794632756927884</v>
       </c>
       <c r="C341" s="1">
@@ -42569,7 +42666,7 @@
       <c r="A342" s="2">
         <v>45047</v>
       </c>
-      <c r="B342" s="5">
+      <c r="B342" s="1">
         <v>-0.15806920974870847</v>
       </c>
       <c r="C342" s="1">
@@ -42589,7 +42686,7 @@
       <c r="A343" s="2">
         <v>45078</v>
       </c>
-      <c r="B343" s="5">
+      <c r="B343" s="1">
         <v>-0.28261422232545941</v>
       </c>
       <c r="C343" s="1">
@@ -42609,7 +42706,7 @@
       <c r="A344" s="2">
         <v>45108</v>
       </c>
-      <c r="B344" s="5">
+      <c r="B344" s="1">
         <v>-0.32069176326930393</v>
       </c>
       <c r="C344" s="1">
@@ -42629,7 +42726,7 @@
       <c r="A345" s="2">
         <v>45139</v>
       </c>
-      <c r="B345" s="5">
+      <c r="B345" s="1">
         <v>-0.40893781811829877</v>
       </c>
       <c r="C345" s="1">
@@ -42649,7 +42746,7 @@
       <c r="A346" s="2">
         <v>45170</v>
       </c>
-      <c r="B346" s="5">
+      <c r="B346" s="1">
         <v>-0.39157351243655003</v>
       </c>
       <c r="C346" s="1">
@@ -42669,7 +42766,7 @@
       <c r="A347" s="2">
         <v>45200</v>
       </c>
-      <c r="B347" s="5">
+      <c r="B347" s="1">
         <v>-0.39821017355231347</v>
       </c>
       <c r="C347" s="1">
@@ -42689,7 +42786,7 @@
       <c r="A348" s="2">
         <v>45231</v>
       </c>
-      <c r="B348" s="5">
+      <c r="B348" s="1">
         <v>-0.61749052898429047</v>
       </c>
       <c r="C348" s="1">
@@ -42709,7 +42806,7 @@
       <c r="A349" s="2">
         <v>45261</v>
       </c>
-      <c r="B349" s="5">
+      <c r="B349" s="1">
         <v>-0.52479857703740884</v>
       </c>
       <c r="C349" s="1">
@@ -42729,7 +42826,7 @@
       <c r="A350" s="2">
         <v>45292</v>
       </c>
-      <c r="B350" s="5">
+      <c r="B350" s="1">
         <v>-0.49805199218976559</v>
       </c>
       <c r="C350" s="1">
@@ -42749,7 +42846,7 @@
       <c r="A351" s="2">
         <v>45323</v>
       </c>
-      <c r="B351" s="5">
+      <c r="B351" s="1">
         <v>-0.57835835931511936</v>
       </c>
       <c r="C351" s="1">
@@ -42769,7 +42866,7 @@
       <c r="A352" s="2">
         <v>45352</v>
       </c>
-      <c r="B352" s="5">
+      <c r="B352" s="1">
         <v>-0.58027436190680604</v>
       </c>
       <c r="C352" s="1">
@@ -42789,7 +42886,7 @@
       <c r="A353" s="2">
         <v>45383</v>
       </c>
-      <c r="B353" s="5">
+      <c r="B353" s="1">
         <v>-0.6115370093192134</v>
       </c>
       <c r="C353" s="1">
@@ -42809,7 +42906,7 @@
       <c r="A354" s="2">
         <v>45413</v>
       </c>
-      <c r="B354" s="5">
+      <c r="B354" s="1">
         <v>-0.62171614714456558</v>
       </c>
       <c r="C354" s="1">
@@ -42829,7 +42926,7 @@
       <c r="A355" s="2">
         <v>45444</v>
       </c>
-      <c r="B355" s="5">
+      <c r="B355" s="1">
         <v>-0.72097890388706065</v>
       </c>
       <c r="C355" s="1">
@@ -42849,7 +42946,7 @@
       <c r="A356" s="2">
         <v>45474</v>
       </c>
-      <c r="B356" s="5">
+      <c r="B356" s="1">
         <v>-0.62234499103511676</v>
       </c>
       <c r="C356" s="1">
@@ -42869,7 +42966,7 @@
       <c r="A357" s="2">
         <v>45505</v>
       </c>
-      <c r="B357" s="5">
+      <c r="B357" s="1">
         <f>'[1]MS_V2-6'!CM481</f>
         <v>-0.66295517286082872</v>
       </c>
@@ -42894,7 +42991,7 @@
       <c r="A358" s="2">
         <v>45536</v>
       </c>
-      <c r="B358" s="5">
+      <c r="B358" s="1">
         <f>'[1]MS_V2-6'!CM482</f>
         <v>-0.63912967915959451</v>
       </c>
@@ -42919,7 +43016,7 @@
       <c r="A359" s="2">
         <v>45566</v>
       </c>
-      <c r="B359" s="5">
+      <c r="B359" s="1">
         <f>'[1]MS_V2-6'!CM483</f>
         <v>-0.55343067362707221</v>
       </c>
@@ -42944,7 +43041,7 @@
       <c r="A360" s="2">
         <v>45597</v>
       </c>
-      <c r="B360" s="5">
+      <c r="B360" s="1">
         <v>-0.44789673735848101</v>
       </c>
       <c r="C360" s="1">
@@ -43044,7 +43141,7 @@
       <c r="A365" s="2">
         <v>45748</v>
       </c>
-      <c r="B365" s="5">
+      <c r="B365" s="1">
         <v>-0.57268483805055115</v>
       </c>
       <c r="C365" s="1">
@@ -43097,6 +43194,26 @@
         <v>0</v>
       </c>
       <c r="F367" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A368" s="2">
+        <v>45839</v>
+      </c>
+      <c r="B368" s="1">
+        <v>-0.40541982679802385</v>
+      </c>
+      <c r="C368" s="1">
+        <v>10</v>
+      </c>
+      <c r="D368" s="1">
+        <v>0</v>
+      </c>
+      <c r="E368" s="1">
+        <v>0</v>
+      </c>
+      <c r="F368" s="1">
         <v>0</v>
       </c>
     </row>
@@ -43107,10 +43224,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F367"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:F368"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="B366" sqref="B366"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -50244,7 +50363,6 @@
         <v>45505</v>
       </c>
       <c r="B357" s="4">
-        <f>[1]BNPP_V2!BV481</f>
         <v>0.63878824036398607</v>
       </c>
       <c r="C357" s="1">
@@ -50269,7 +50387,6 @@
         <v>45536</v>
       </c>
       <c r="B358" s="4">
-        <f>[1]BNPP_V2!BV482</f>
         <v>0.6390865180123837</v>
       </c>
       <c r="C358" s="1">
@@ -50294,7 +50411,6 @@
         <v>45566</v>
       </c>
       <c r="B359" s="4">
-        <f>[1]BNPP_V2!BV483</f>
         <v>0.70119360505715278</v>
       </c>
       <c r="C359" s="1">
@@ -50319,7 +50435,7 @@
         <v>45597</v>
       </c>
       <c r="B360" s="4">
-        <v>0.60857626821502464</v>
+        <v>0.6080279238811912</v>
       </c>
       <c r="C360" s="1">
         <v>10</v>
@@ -50339,7 +50455,7 @@
         <v>45627</v>
       </c>
       <c r="B361" s="4">
-        <v>0.57687500000000003</v>
+        <v>0.62695152968163703</v>
       </c>
       <c r="C361" s="1">
         <v>0</v>
@@ -50359,7 +50475,7 @@
         <v>45658</v>
       </c>
       <c r="B362" s="4">
-        <v>0.56237500000000007</v>
+        <v>0.59664018468055158</v>
       </c>
       <c r="C362" s="1">
         <v>10</v>
@@ -50399,7 +50515,7 @@
         <v>45717</v>
       </c>
       <c r="B364" s="4">
-        <v>0.5853149053463883</v>
+        <v>0.58953685283446933</v>
       </c>
       <c r="C364" s="1">
         <v>0</v>
@@ -50419,7 +50535,7 @@
         <v>45748</v>
       </c>
       <c r="B365" s="4">
-        <v>0.61271238635605285</v>
+        <v>0.61179360571444552</v>
       </c>
       <c r="C365" s="1">
         <v>0</v>
@@ -50439,7 +50555,7 @@
         <v>45778</v>
       </c>
       <c r="B366" s="4">
-        <v>0.57050000000000001</v>
+        <v>0.59802919852066416</v>
       </c>
       <c r="C366" s="1">
         <v>0</v>
@@ -50459,7 +50575,7 @@
         <v>45809</v>
       </c>
       <c r="B367" s="4">
-        <v>0.59749999999999992</v>
+        <v>0.62976918823802608</v>
       </c>
       <c r="C367" s="1">
         <v>0</v>
@@ -50472,6 +50588,26 @@
       </c>
       <c r="F367" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A368" s="2">
+        <v>45839</v>
+      </c>
+      <c r="B368" s="4">
+        <v>0.58592863724269029</v>
+      </c>
+      <c r="C368" s="1">
+        <v>0</v>
+      </c>
+      <c r="D368" s="1">
+        <v>0</v>
+      </c>
+      <c r="E368" s="1">
+        <v>0</v>
+      </c>
+      <c r="F368" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/streamlit_24_cycle.xlsx
+++ b/data/streamlit_24_cycle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.130.210\채권운용부문\FMVC\Monthly QIS\making_files\SC_2408\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C7383C-116F-45C6-8B7A-B12F0BC80740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E4DA3E-503C-4A50-B107-BA10B334A844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CycleE" sheetId="1" r:id="rId1"/>
@@ -1034,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P368"/>
+  <dimension ref="A1:P369"/>
   <sheetViews>
     <sheetView topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="K368" sqref="K368"/>
+      <selection activeCell="A369" sqref="A369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -19505,6 +19505,56 @@
         <v>10</v>
       </c>
       <c r="P368" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A369" s="2">
+        <v>45870</v>
+      </c>
+      <c r="B369" s="1">
+        <v>0.30136102074957943</v>
+      </c>
+      <c r="C369" s="1">
+        <v>-0.94399908195398818</v>
+      </c>
+      <c r="D369" s="1">
+        <v>0.33832402182084176</v>
+      </c>
+      <c r="E369" s="1">
+        <v>0.23757572234210214</v>
+      </c>
+      <c r="F369" s="1">
+        <v>3.1426950837853554E-3</v>
+      </c>
+      <c r="G369" s="1">
+        <v>-0.85485870061912228</v>
+      </c>
+      <c r="H369" s="1">
+        <v>-1.6263576909799631</v>
+      </c>
+      <c r="I369" s="1">
+        <v>-1.6341825447782619</v>
+      </c>
+      <c r="J369" s="1">
+        <v>0.21902291066846877</v>
+      </c>
+      <c r="K369" s="1">
+        <v>-0.77036364607823482</v>
+      </c>
+      <c r="L369" s="1">
+        <v>-0.47303352937447923</v>
+      </c>
+      <c r="M369" s="1">
+        <v>0</v>
+      </c>
+      <c r="N369" s="1">
+        <v>0</v>
+      </c>
+      <c r="O369" s="1">
+        <v>10</v>
+      </c>
+      <c r="P369" s="1">
         <v>0</v>
       </c>
     </row>
@@ -19626,10 +19676,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N368"/>
+  <dimension ref="A1:N369"/>
   <sheetViews>
-    <sheetView topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="I368" sqref="I368"/>
+    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="A368" sqref="A368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -35881,6 +35931,50 @@
         <v>10</v>
       </c>
       <c r="N368" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A369" s="2">
+        <v>45870</v>
+      </c>
+      <c r="B369" s="4">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="C369" s="4">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="D369" s="4">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="E369" s="4">
+        <v>0.314</v>
+      </c>
+      <c r="F369" s="4">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="G369" s="4">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="H369" s="4">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="I369" s="4">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="J369" s="4">
+        <v>0.59437499999999988</v>
+      </c>
+      <c r="K369" s="1">
+        <v>0</v>
+      </c>
+      <c r="L369" s="1">
+        <v>0</v>
+      </c>
+      <c r="M369" s="1">
+        <v>10</v>
+      </c>
+      <c r="N369" s="1">
         <v>0</v>
       </c>
     </row>
@@ -35987,8 +36081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F368"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="J360" sqref="J360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -50614,4 +50708,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{3466d8de-a423-4c2e-b2dc-846f22c52444}" enabled="1" method="Standard" siteId="{60ed981f-ef6e-4603-9f81-ed6b34713134}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/data/streamlit_24_cycle.xlsx
+++ b/data/streamlit_24_cycle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.130.210\채권운용부문\FMVC\Monthly QIS\making_files\SC_2408\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E4DA3E-503C-4A50-B107-BA10B334A844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC74685-BDDE-4EA7-9167-5D8213F960E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CycleE" sheetId="1" r:id="rId1"/>
@@ -1034,10 +1034,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P369"/>
+  <dimension ref="A1:P370"/>
   <sheetViews>
     <sheetView topLeftCell="A332" workbookViewId="0">
-      <selection activeCell="A369" sqref="A369"/>
+      <selection activeCell="N370" sqref="N370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -19556,6 +19556,56 @@
       </c>
       <c r="P369" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A370" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B370" s="1">
+        <v>0.30410741184386331</v>
+      </c>
+      <c r="C370" s="1">
+        <v>-1.170589247607869</v>
+      </c>
+      <c r="D370" s="1">
+        <v>0.23956393595708911</v>
+      </c>
+      <c r="E370" s="1">
+        <v>0.17592936437456513</v>
+      </c>
+      <c r="F370" s="1">
+        <v>9.2518282927730788E-2</v>
+      </c>
+      <c r="G370" s="1">
+        <v>-0.77043865201022954</v>
+      </c>
+      <c r="H370" s="1">
+        <v>-1.5943895635565026</v>
+      </c>
+      <c r="I370" s="1">
+        <v>-2.231768751030982</v>
+      </c>
+      <c r="J370" s="1">
+        <v>1.145127868235589</v>
+      </c>
+      <c r="K370" s="1">
+        <v>-2.2042355501613513</v>
+      </c>
+      <c r="L370" s="1">
+        <v>-0.60141749010280976</v>
+      </c>
+      <c r="M370" s="1">
+        <v>0</v>
+      </c>
+      <c r="N370" s="1">
+        <v>0</v>
+      </c>
+      <c r="O370" s="1">
+        <v>0</v>
+      </c>
+      <c r="P370" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -19676,10 +19726,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N369"/>
+  <dimension ref="A1:N370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="A368" sqref="A368"/>
+    <sheetView topLeftCell="A331" workbookViewId="0">
+      <selection activeCell="H370" sqref="H370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -35976,6 +36026,50 @@
       </c>
       <c r="N369" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A370" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B370" s="4">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="C370" s="4">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="D370" s="4">
+        <v>0.314</v>
+      </c>
+      <c r="E370" s="4">
+        <v>0.371</v>
+      </c>
+      <c r="F370" s="4">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="G370" s="4">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="H370" s="4">
+        <v>0.123</v>
+      </c>
+      <c r="I370" s="4">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="J370" s="4">
+        <v>0.55537499999999995</v>
+      </c>
+      <c r="K370" s="1">
+        <v>0</v>
+      </c>
+      <c r="L370" s="1">
+        <v>0</v>
+      </c>
+      <c r="M370" s="1">
+        <v>0</v>
+      </c>
+      <c r="N370" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -36079,10 +36173,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F368"/>
+  <dimension ref="A1:F370"/>
   <sheetViews>
-    <sheetView topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="J360" sqref="J360"/>
+    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="H370" sqref="H370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -43311,6 +43405,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A369" s="2">
+        <v>45870</v>
+      </c>
+      <c r="B369" s="1">
+        <v>-0.46986026502408301</v>
+      </c>
+      <c r="C369" s="1">
+        <v>0</v>
+      </c>
+      <c r="D369" s="1">
+        <v>10</v>
+      </c>
+      <c r="E369" s="1">
+        <v>0</v>
+      </c>
+      <c r="F369" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A370" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B370" s="1">
+        <v>-0.60141749010280976</v>
+      </c>
+      <c r="C370" s="1">
+        <v>0</v>
+      </c>
+      <c r="D370" s="1">
+        <v>10</v>
+      </c>
+      <c r="E370" s="1">
+        <v>0</v>
+      </c>
+      <c r="F370" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43319,10 +43453,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F368"/>
+  <dimension ref="A1:F370"/>
   <sheetViews>
-    <sheetView topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="B366" sqref="B366"/>
+    <sheetView topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="B370" sqref="B370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -50704,6 +50838,46 @@
         <v>10</v>
       </c>
     </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A369" s="2">
+        <v>45870</v>
+      </c>
+      <c r="B369" s="4">
+        <v>0.61264443057833506</v>
+      </c>
+      <c r="C369" s="1">
+        <v>0</v>
+      </c>
+      <c r="D369" s="1">
+        <v>0</v>
+      </c>
+      <c r="E369" s="1">
+        <v>10</v>
+      </c>
+      <c r="F369" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A370" s="2">
+        <v>45901</v>
+      </c>
+      <c r="B370" s="4">
+        <v>0.56807881349011324</v>
+      </c>
+      <c r="C370" s="1">
+        <v>10</v>
+      </c>
+      <c r="D370" s="1">
+        <v>0</v>
+      </c>
+      <c r="E370" s="1">
+        <v>0</v>
+      </c>
+      <c r="F370" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
